--- a/CATI/saved_states/CHCL_backtest_results.xlsx
+++ b/CATI/saved_states/CHCL_backtest_results.xlsx
@@ -462,7 +462,7 @@
         <v>476.91</v>
       </c>
       <c r="C2" t="n">
-        <v>492.9815896242857</v>
+        <v>490.3951686680317</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>478.53</v>
       </c>
       <c r="C3" t="n">
-        <v>484.3127382695675</v>
+        <v>481.6475806027651</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>488.59</v>
       </c>
       <c r="C4" t="n">
-        <v>483.2198664844036</v>
+        <v>480.4717972666026</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>490.31</v>
       </c>
       <c r="C5" t="n">
-        <v>490.3780206084252</v>
+        <v>487.9133723348379</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>483.04</v>
       </c>
       <c r="C6" t="n">
-        <v>490.131275832653</v>
+        <v>487.8991213023663</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
         <v>481.34</v>
       </c>
       <c r="C7" t="n">
-        <v>483.3731650650502</v>
+        <v>480.7392016500235</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +528,7 @@
         <v>481.48</v>
       </c>
       <c r="C8" t="n">
-        <v>483.3658688485622</v>
+        <v>480.14697907269</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +539,7 @@
         <v>477.23</v>
       </c>
       <c r="C9" t="n">
-        <v>482.2694464981556</v>
+        <v>478.479676553607</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>473.33</v>
       </c>
       <c r="C10" t="n">
-        <v>481.0381026685238</v>
+        <v>476.961809912324</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         <v>475.25</v>
       </c>
       <c r="C11" t="n">
-        <v>477.5281445771456</v>
+        <v>472.9805337935686</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>473.93</v>
       </c>
       <c r="C12" t="n">
-        <v>480.2368844568729</v>
+        <v>475.4341206908226</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +583,7 @@
         <v>475.08</v>
       </c>
       <c r="C13" t="n">
-        <v>477.9377764105797</v>
+        <v>473.1151919066906</v>
       </c>
     </row>
     <row r="14">
@@ -594,7 +594,7 @@
         <v>484.11</v>
       </c>
       <c r="C14" t="n">
-        <v>477.6969427406788</v>
+        <v>472.8932035446167</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +605,7 @@
         <v>483.45</v>
       </c>
       <c r="C15" t="n">
-        <v>482.013942360878</v>
+        <v>478.1025850653648</v>
       </c>
     </row>
     <row r="16">
@@ -616,7 +616,7 @@
         <v>489.25</v>
       </c>
       <c r="C16" t="n">
-        <v>483.7266023755074</v>
+        <v>480.4666177332401</v>
       </c>
     </row>
     <row r="17">
@@ -627,7 +627,7 @@
         <v>495.02</v>
       </c>
       <c r="C17" t="n">
-        <v>491.0143911480904</v>
+        <v>489.0146620810032</v>
       </c>
     </row>
     <row r="18">
@@ -638,7 +638,7 @@
         <v>496.72</v>
       </c>
       <c r="C18" t="n">
-        <v>497.7424391627312</v>
+        <v>496.6697490245104</v>
       </c>
     </row>
     <row r="19">
@@ -649,7 +649,7 @@
         <v>487.77</v>
       </c>
       <c r="C19" t="n">
-        <v>501.5673343420029</v>
+        <v>500.5151965141296</v>
       </c>
     </row>
     <row r="20">
@@ -660,7 +660,7 @@
         <v>475.11</v>
       </c>
       <c r="C20" t="n">
-        <v>498.1881619066</v>
+        <v>495.90094435215</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         <v>477.07</v>
       </c>
       <c r="C21" t="n">
-        <v>490.5554708361626</v>
+        <v>487.0115580260754</v>
       </c>
     </row>
     <row r="22">
@@ -682,7 +682,7 @@
         <v>489.72</v>
       </c>
       <c r="C22" t="n">
-        <v>488.1511724174023</v>
+        <v>483.7436919093132</v>
       </c>
     </row>
     <row r="23">
@@ -693,7 +693,7 @@
         <v>482.39</v>
       </c>
       <c r="C23" t="n">
-        <v>493.8058670014143</v>
+        <v>490.1603436470032</v>
       </c>
     </row>
     <row r="24">
@@ -704,7 +704,7 @@
         <v>478.52</v>
       </c>
       <c r="C24" t="n">
-        <v>493.1461934387684</v>
+        <v>489.9357411324978</v>
       </c>
     </row>
     <row r="25">
@@ -715,7 +715,7 @@
         <v>486.06</v>
       </c>
       <c r="C25" t="n">
-        <v>491.7192368745804</v>
+        <v>488.6426623374224</v>
       </c>
     </row>
     <row r="26">
@@ -726,7 +726,7 @@
         <v>492.91</v>
       </c>
       <c r="C26" t="n">
-        <v>488.5869360208512</v>
+        <v>486.0633034944535</v>
       </c>
     </row>
     <row r="27">
@@ -737,7 +737,7 @@
         <v>486.7</v>
       </c>
       <c r="C27" t="n">
-        <v>496.1708263278007</v>
+        <v>494.7134948730469</v>
       </c>
     </row>
     <row r="28">
@@ -748,7 +748,7 @@
         <v>493.61</v>
       </c>
       <c r="C28" t="n">
-        <v>493.8735325813294</v>
+        <v>492.4450153291226</v>
       </c>
     </row>
     <row r="29">
@@ -759,7 +759,7 @@
         <v>522.04</v>
       </c>
       <c r="C29" t="n">
-        <v>497.8867637872696</v>
+        <v>496.7367708206177</v>
       </c>
     </row>
     <row r="30">
@@ -770,7 +770,7 @@
         <v>514.79</v>
       </c>
       <c r="C30" t="n">
-        <v>514.453701210022</v>
+        <v>516.1136294782162</v>
       </c>
     </row>
     <row r="31">
@@ -781,7 +781,7 @@
         <v>498.37</v>
       </c>
       <c r="C31" t="n">
-        <v>513.0928690463305</v>
+        <v>515.2553095936776</v>
       </c>
     </row>
     <row r="32">
@@ -792,7 +792,7 @@
         <v>490.31</v>
       </c>
       <c r="C32" t="n">
-        <v>510.8562860637903</v>
+        <v>511.6388052821159</v>
       </c>
     </row>
     <row r="33">
@@ -803,7 +803,7 @@
         <v>482.02</v>
       </c>
       <c r="C33" t="n">
-        <v>504.7786450266838</v>
+        <v>503.618039381504</v>
       </c>
     </row>
     <row r="34">
@@ -814,7 +814,7 @@
         <v>482.6499999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>499.3030881643296</v>
+        <v>496.3379174888134</v>
       </c>
     </row>
     <row r="35">
@@ -825,7 +825,7 @@
         <v>479.23</v>
       </c>
       <c r="C35" t="n">
-        <v>490.8024692237377</v>
+        <v>486.9563096702099</v>
       </c>
     </row>
     <row r="36">
@@ -836,7 +836,7 @@
         <v>482.12</v>
       </c>
       <c r="C36" t="n">
-        <v>487.2286107122898</v>
+        <v>482.9251110434532</v>
       </c>
     </row>
     <row r="37">
@@ -847,7 +847,7 @@
         <v>494.81</v>
       </c>
       <c r="C37" t="n">
-        <v>484.819454652071</v>
+        <v>480.4865555226803</v>
       </c>
     </row>
     <row r="38">
@@ -858,7 +858,7 @@
         <v>490</v>
       </c>
       <c r="C38" t="n">
-        <v>492.6669451653958</v>
+        <v>489.2142935872078</v>
       </c>
     </row>
     <row r="39">
@@ -869,7 +869,7 @@
         <v>486.11</v>
       </c>
       <c r="C39" t="n">
-        <v>489.6967217624187</v>
+        <v>487.1682511031628</v>
       </c>
     </row>
     <row r="40">
@@ -880,7 +880,7 @@
         <v>488.64</v>
       </c>
       <c r="C40" t="n">
-        <v>488.0338281869888</v>
+        <v>485.5936924695969</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>487.26</v>
       </c>
       <c r="C41" t="n">
-        <v>484.0910035192966</v>
+        <v>481.5757401823998</v>
       </c>
     </row>
     <row r="42">
@@ -902,7 +902,7 @@
         <v>487.12</v>
       </c>
       <c r="C42" t="n">
-        <v>489.6863334327936</v>
+        <v>487.0564082980156</v>
       </c>
     </row>
     <row r="43">
@@ -913,7 +913,7 @@
         <v>495.14</v>
       </c>
       <c r="C43" t="n">
-        <v>483.1282540977001</v>
+        <v>480.2442587077618</v>
       </c>
     </row>
     <row r="44">
@@ -924,7 +924,7 @@
         <v>488.51</v>
       </c>
       <c r="C44" t="n">
-        <v>494.3243763327599</v>
+        <v>491.5947232335806</v>
       </c>
     </row>
     <row r="45">
@@ -935,7 +935,7 @@
         <v>488.37</v>
       </c>
       <c r="C45" t="n">
-        <v>490.983313947916</v>
+        <v>487.9084659218788</v>
       </c>
     </row>
     <row r="46">
@@ -946,7 +946,7 @@
         <v>483.25</v>
       </c>
       <c r="C46" t="n">
-        <v>490.6907044529915</v>
+        <v>487.6006592273712</v>
       </c>
     </row>
     <row r="47">
@@ -957,7 +957,7 @@
         <v>486.77</v>
       </c>
       <c r="C47" t="n">
-        <v>483.7259488373995</v>
+        <v>480.3287504553795</v>
       </c>
     </row>
     <row r="48">
@@ -968,7 +968,7 @@
         <v>525.75</v>
       </c>
       <c r="C48" t="n">
-        <v>485.2497753560543</v>
+        <v>481.9494079113007</v>
       </c>
     </row>
     <row r="49">
@@ -979,7 +979,7 @@
         <v>551.66</v>
       </c>
       <c r="C49" t="n">
-        <v>512.6351680219174</v>
+        <v>513.8474714577198</v>
       </c>
     </row>
     <row r="50">
@@ -990,7 +990,7 @@
         <v>555.85</v>
       </c>
       <c r="C50" t="n">
-        <v>529.7333441376686</v>
+        <v>535.6611298620701</v>
       </c>
     </row>
     <row r="51">
@@ -1001,7 +1001,7 @@
         <v>581.12</v>
       </c>
       <c r="C51" t="n">
-        <v>541.322369581461</v>
+        <v>549.0859536051751</v>
       </c>
     </row>
     <row r="52">
@@ -1012,7 +1012,7 @@
         <v>567.37</v>
       </c>
       <c r="C52" t="n">
-        <v>557.0243346869946</v>
+        <v>567.2776452898979</v>
       </c>
     </row>
     <row r="53">
@@ -1023,7 +1023,7 @@
         <v>581.76</v>
       </c>
       <c r="C53" t="n">
-        <v>560.3266529917718</v>
+        <v>569.3376754403115</v>
       </c>
     </row>
     <row r="54">
@@ -1034,7 +1034,7 @@
         <v>574.95</v>
       </c>
       <c r="C54" t="n">
-        <v>576.9897873222828</v>
+        <v>585.8378154158593</v>
       </c>
     </row>
     <row r="55">
@@ -1045,7 +1045,7 @@
         <v>574.13</v>
       </c>
       <c r="C55" t="n">
-        <v>580.4019780635834</v>
+        <v>588.7206402897835</v>
       </c>
     </row>
     <row r="56">
@@ -1056,7 +1056,7 @@
         <v>574.9</v>
       </c>
       <c r="C56" t="n">
-        <v>581.5284826755524</v>
+        <v>587.1455549240112</v>
       </c>
     </row>
     <row r="57">
@@ -1067,7 +1067,7 @@
         <v>564.36</v>
       </c>
       <c r="C57" t="n">
-        <v>581.7751103997231</v>
+        <v>584.997872632742</v>
       </c>
     </row>
     <row r="58">
@@ -1078,7 +1078,7 @@
         <v>540.99</v>
       </c>
       <c r="C58" t="n">
-        <v>577.7882158041001</v>
+        <v>579.7954946994781</v>
       </c>
     </row>
     <row r="59">
@@ -1089,7 +1089,7 @@
         <v>542.91</v>
       </c>
       <c r="C59" t="n">
-        <v>577.7163461208344</v>
+        <v>577.6396773219109</v>
       </c>
     </row>
     <row r="60">
@@ -1100,7 +1100,7 @@
         <v>535.25</v>
       </c>
       <c r="C60" t="n">
-        <v>568.9541168510914</v>
+        <v>567.499067902565</v>
       </c>
     </row>
     <row r="61">
@@ -1111,7 +1111,7 @@
         <v>545.6799999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>564.6114048957825</v>
+        <v>562.9883283734322</v>
       </c>
     </row>
     <row r="62">
@@ -1122,7 +1122,7 @@
         <v>541.78</v>
       </c>
       <c r="C62" t="n">
-        <v>563.1925053834915</v>
+        <v>562.3201393067837</v>
       </c>
     </row>
     <row r="63">
@@ -1133,7 +1133,7 @@
         <v>546.67</v>
       </c>
       <c r="C63" t="n">
-        <v>560.0182220220566</v>
+        <v>559.7621521353722</v>
       </c>
     </row>
     <row r="64">
@@ -1144,7 +1144,7 @@
         <v>544.22</v>
       </c>
       <c r="C64" t="n">
-        <v>556.3995327472687</v>
+        <v>556.1790270388127</v>
       </c>
     </row>
     <row r="65">
@@ -1155,7 +1155,7 @@
         <v>548.9400000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>552.3973434090615</v>
+        <v>552.2424451231957</v>
       </c>
     </row>
     <row r="66">
@@ -1166,7 +1166,7 @@
         <v>543.91</v>
       </c>
       <c r="C66" t="n">
-        <v>550.0273606181145</v>
+        <v>549.7180322527886</v>
       </c>
     </row>
     <row r="67">
@@ -1177,7 +1177,7 @@
         <v>536.72</v>
       </c>
       <c r="C67" t="n">
-        <v>544.9965608239174</v>
+        <v>544.4663170695305</v>
       </c>
     </row>
     <row r="68">
@@ -1188,7 +1188,7 @@
         <v>534.5599999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>543.2928747653962</v>
+        <v>542.3508044600487</v>
       </c>
     </row>
     <row r="69">
@@ -1199,7 +1199,7 @@
         <v>528.08</v>
       </c>
       <c r="C69" t="n">
-        <v>537.2319623529911</v>
+        <v>535.7818685889245</v>
       </c>
     </row>
     <row r="70">
@@ -1210,7 +1210,7 @@
         <v>528.37</v>
       </c>
       <c r="C70" t="n">
-        <v>536.0401624560357</v>
+        <v>533.993320119381</v>
       </c>
     </row>
     <row r="71">
@@ -1221,7 +1221,7 @@
         <v>526.85</v>
       </c>
       <c r="C71" t="n">
-        <v>534.4179833292961</v>
+        <v>532.1956416249276</v>
       </c>
     </row>
     <row r="72">
@@ -1232,7 +1232,7 @@
         <v>524.22</v>
       </c>
       <c r="C72" t="n">
-        <v>528.8323394358158</v>
+        <v>526.4823529601098</v>
       </c>
     </row>
     <row r="73">
@@ -1243,7 +1243,7 @@
         <v>521.61</v>
       </c>
       <c r="C73" t="n">
-        <v>528.1355897784233</v>
+        <v>525.9345124483109</v>
       </c>
     </row>
     <row r="74">
@@ -1254,7 +1254,7 @@
         <v>520</v>
       </c>
       <c r="C74" t="n">
-        <v>531.5746438622475</v>
+        <v>529.349570953846</v>
       </c>
     </row>
     <row r="75">
@@ -1265,7 +1265,7 @@
         <v>528.09</v>
       </c>
       <c r="C75" t="n">
-        <v>524.2629375457764</v>
+        <v>521.8593999624253</v>
       </c>
     </row>
     <row r="76">
@@ -1276,7 +1276,7 @@
         <v>533.45</v>
       </c>
       <c r="C76" t="n">
-        <v>525.9299474358559</v>
+        <v>523.6308198809623</v>
       </c>
     </row>
     <row r="77">
@@ -1287,7 +1287,7 @@
         <v>547.62</v>
       </c>
       <c r="C77" t="n">
-        <v>529.5961596608162</v>
+        <v>527.9549011230469</v>
       </c>
     </row>
     <row r="78">
@@ -1298,7 +1298,7 @@
         <v>544.03</v>
       </c>
       <c r="C78" t="n">
-        <v>538.2798473060132</v>
+        <v>537.7660493016243</v>
       </c>
     </row>
     <row r="79">
@@ -1309,7 +1309,7 @@
         <v>546.26</v>
       </c>
       <c r="C79" t="n">
-        <v>541.5579944550991</v>
+        <v>541.8316610991955</v>
       </c>
     </row>
     <row r="80">
@@ -1320,7 +1320,7 @@
         <v>558.08</v>
       </c>
       <c r="C80" t="n">
-        <v>545.1342135071754</v>
+        <v>545.0218439698219</v>
       </c>
     </row>
     <row r="81">
@@ -1331,7 +1331,7 @@
         <v>554.3</v>
       </c>
       <c r="C81" t="n">
-        <v>544.5358847379684</v>
+        <v>545.0411184668541</v>
       </c>
     </row>
     <row r="82">
@@ -1342,7 +1342,7 @@
         <v>572.71</v>
       </c>
       <c r="C82" t="n">
-        <v>551.7799352288247</v>
+        <v>551.9381889939308</v>
       </c>
     </row>
     <row r="83">
@@ -1353,7 +1353,7 @@
         <v>559.11</v>
       </c>
       <c r="C83" t="n">
-        <v>554.2276793003083</v>
+        <v>555.3985074520111</v>
       </c>
     </row>
     <row r="84">
@@ -1364,7 +1364,7 @@
         <v>555.6900000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>556.9991490840912</v>
+        <v>557.8391113758088</v>
       </c>
     </row>
     <row r="85">
@@ -1375,7 +1375,7 @@
         <v>554.55</v>
       </c>
       <c r="C85" t="n">
-        <v>562.7817322969437</v>
+        <v>562.3310055971145</v>
       </c>
     </row>
     <row r="86">
@@ -1386,7 +1386,7 @@
         <v>544.9299999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>560.1997105300427</v>
+        <v>558.9317100405693</v>
       </c>
     </row>
     <row r="87">
@@ -1397,7 +1397,7 @@
         <v>537.2</v>
       </c>
       <c r="C87" t="n">
-        <v>557.7247909784318</v>
+        <v>555.6262703597546</v>
       </c>
     </row>
     <row r="88">
@@ -1408,7 +1408,7 @@
         <v>538.36</v>
       </c>
       <c r="C88" t="n">
-        <v>551.0192753970623</v>
+        <v>548.4138042926788</v>
       </c>
     </row>
     <row r="89">
@@ -1419,7 +1419,7 @@
         <v>539.83</v>
       </c>
       <c r="C89" t="n">
-        <v>550.5942415237427</v>
+        <v>548.1492676734924</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>531.38</v>
       </c>
       <c r="C90" t="n">
-        <v>545.6812736749649</v>
+        <v>543.3408659219742</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>529.75</v>
       </c>
       <c r="C91" t="n">
-        <v>539.1575587391853</v>
+        <v>536.4698783934117</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>529.59</v>
       </c>
       <c r="C92" t="n">
-        <v>536.9743122696876</v>
+        <v>534.101748919487</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>526.85</v>
       </c>
       <c r="C93" t="n">
-        <v>533.4445822119714</v>
+        <v>530.67740432024</v>
       </c>
     </row>
     <row r="94">
@@ -1474,7 +1474,7 @@
         <v>520.12</v>
       </c>
       <c r="C94" t="n">
-        <v>531.2527714669704</v>
+        <v>528.5768352985382</v>
       </c>
     </row>
     <row r="95">
@@ -1485,7 +1485,7 @@
         <v>519.77</v>
       </c>
       <c r="C95" t="n">
-        <v>527.1325355887413</v>
+        <v>524.548582470417</v>
       </c>
     </row>
     <row r="96">
@@ -1496,7 +1496,7 @@
         <v>523.3099999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>524.4639931797982</v>
+        <v>522.0164832115173</v>
       </c>
     </row>
     <row r="97">
@@ -1507,7 +1507,7 @@
         <v>515.83</v>
       </c>
       <c r="C97" t="n">
-        <v>523.2653457641602</v>
+        <v>520.7271598219871</v>
       </c>
     </row>
     <row r="98">
@@ -1518,7 +1518,7 @@
         <v>517.23</v>
       </c>
       <c r="C98" t="n">
-        <v>520.5719103813171</v>
+        <v>517.7734797120095</v>
       </c>
     </row>
     <row r="99">
@@ -1529,7 +1529,7 @@
         <v>516.8</v>
       </c>
       <c r="C99" t="n">
-        <v>517.2264585614205</v>
+        <v>514.1891255736351</v>
       </c>
     </row>
     <row r="100">
@@ -1540,7 +1540,7 @@
         <v>513.28</v>
       </c>
       <c r="C100" t="n">
-        <v>517.1583345293999</v>
+        <v>513.9696245580911</v>
       </c>
     </row>
     <row r="101">
@@ -1551,7 +1551,7 @@
         <v>511.59</v>
       </c>
       <c r="C101" t="n">
-        <v>510.7392051994801</v>
+        <v>507.310041975975</v>
       </c>
     </row>
     <row r="102">
@@ -1562,7 +1562,7 @@
         <v>505.9</v>
       </c>
       <c r="C102" t="n">
-        <v>508.3900868564844</v>
+        <v>504.8419601887464</v>
       </c>
     </row>
     <row r="103">
@@ -1573,7 +1573,7 @@
         <v>506.26</v>
       </c>
       <c r="C103" t="n">
-        <v>508.256638276577</v>
+        <v>504.5196293413639</v>
       </c>
     </row>
     <row r="104">
@@ -1584,7 +1584,7 @@
         <v>508.27</v>
       </c>
       <c r="C104" t="n">
-        <v>505.7483980357647</v>
+        <v>501.6700471222401</v>
       </c>
     </row>
     <row r="105">
@@ -1595,7 +1595,7 @@
         <v>517.78</v>
       </c>
       <c r="C105" t="n">
-        <v>505.2835178464651</v>
+        <v>500.9688299953938</v>
       </c>
     </row>
     <row r="106">
@@ -1606,7 +1606,7 @@
         <v>510.16</v>
       </c>
       <c r="C106" t="n">
-        <v>510.2846938312054</v>
+        <v>506.4462791919709</v>
       </c>
     </row>
     <row r="107">
@@ -1617,7 +1617,7 @@
         <v>506.0699999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>506.550650203228</v>
+        <v>502.6349522441625</v>
       </c>
     </row>
     <row r="108">
@@ -1628,7 +1628,7 @@
         <v>508.22</v>
       </c>
       <c r="C108" t="n">
-        <v>506.534292241931</v>
+        <v>502.1530995726586</v>
       </c>
     </row>
     <row r="109">
@@ -1639,7 +1639,7 @@
         <v>504.71</v>
       </c>
       <c r="C109" t="n">
-        <v>507.240220695734</v>
+        <v>502.8834430396557</v>
       </c>
     </row>
     <row r="110">
@@ -1650,7 +1650,7 @@
         <v>504.28</v>
       </c>
       <c r="C110" t="n">
-        <v>505.2120675981045</v>
+        <v>500.5539796113968</v>
       </c>
     </row>
     <row r="111">
@@ -1661,7 +1661,7 @@
         <v>503.2</v>
       </c>
       <c r="C111" t="n">
-        <v>504.9426928460598</v>
+        <v>499.9670048475265</v>
       </c>
     </row>
     <row r="112">
@@ -1672,7 +1672,7 @@
         <v>501.49</v>
       </c>
       <c r="C112" t="n">
-        <v>502.8754445135593</v>
+        <v>497.9101936161518</v>
       </c>
     </row>
     <row r="113">
@@ -1683,7 +1683,7 @@
         <v>497.36</v>
       </c>
       <c r="C113" t="n">
-        <v>502.7189075052738</v>
+        <v>497.9537270575762</v>
       </c>
     </row>
     <row r="114">
@@ -1694,7 +1694,7 @@
         <v>464.0000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>498.874074536562</v>
+        <v>494.1427512645722</v>
       </c>
     </row>
     <row r="115">
@@ -1705,7 +1705,7 @@
         <v>491.68</v>
       </c>
       <c r="C115" t="n">
-        <v>485.9884099781513</v>
+        <v>480.9562445819378</v>
       </c>
     </row>
     <row r="116">
@@ -1716,7 +1716,7 @@
         <v>502.2</v>
       </c>
       <c r="C116" t="n">
-        <v>494.2653433084488</v>
+        <v>490.6126602977515</v>
       </c>
     </row>
     <row r="117">
@@ -1727,7 +1727,7 @@
         <v>496</v>
       </c>
       <c r="C117" t="n">
-        <v>499.2744885563851</v>
+        <v>497.1875365376472</v>
       </c>
     </row>
     <row r="118">
@@ -1738,7 +1738,7 @@
         <v>497</v>
       </c>
       <c r="C118" t="n">
-        <v>499.1483654558659</v>
+        <v>497.6409164071083</v>
       </c>
     </row>
     <row r="119">
@@ -1749,7 +1749,7 @@
         <v>503</v>
       </c>
       <c r="C119" t="n">
-        <v>498.9270013689995</v>
+        <v>497.4087055385113</v>
       </c>
     </row>
     <row r="120">
@@ -1760,7 +1760,7 @@
         <v>497.3</v>
       </c>
       <c r="C120" t="n">
-        <v>501.803368896246</v>
+        <v>500.1680214643479</v>
       </c>
     </row>
     <row r="121">
@@ -1771,7 +1771,7 @@
         <v>490</v>
       </c>
       <c r="C121" t="n">
-        <v>500.565450668335</v>
+        <v>498.5940090715885</v>
       </c>
     </row>
     <row r="122">
@@ -1782,7 +1782,7 @@
         <v>495.9</v>
       </c>
       <c r="C122" t="n">
-        <v>496.0087488770485</v>
+        <v>493.5222021996975</v>
       </c>
     </row>
     <row r="123">
@@ -1793,7 +1793,7 @@
         <v>482</v>
       </c>
       <c r="C123" t="n">
-        <v>499.5117911696434</v>
+        <v>496.9993760883808</v>
       </c>
     </row>
     <row r="124">
@@ -1804,7 +1804,7 @@
         <v>486</v>
       </c>
       <c r="C124" t="n">
-        <v>494.3222889125347</v>
+        <v>491.2520254075527</v>
       </c>
     </row>
     <row r="125">
@@ -1815,7 +1815,7 @@
         <v>482.9999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>489.7778190135956</v>
+        <v>486.3920038998127</v>
       </c>
     </row>
     <row r="126">
@@ -1826,7 +1826,7 @@
         <v>482.7</v>
       </c>
       <c r="C126" t="n">
-        <v>488.8578421980143</v>
+        <v>485.2690303444862</v>
       </c>
     </row>
     <row r="127">
@@ -1837,7 +1837,7 @@
         <v>484</v>
       </c>
       <c r="C127" t="n">
-        <v>484.3875927686692</v>
+        <v>480.7984687775374</v>
       </c>
     </row>
     <row r="128">
@@ -1848,7 +1848,7 @@
         <v>481</v>
       </c>
       <c r="C128" t="n">
-        <v>485.1916202187538</v>
+        <v>481.7617351770401</v>
       </c>
     </row>
     <row r="129">
@@ -1859,7 +1859,7 @@
         <v>480.1</v>
       </c>
       <c r="C129" t="n">
-        <v>483.2798359215259</v>
+        <v>480.2126645296812</v>
       </c>
     </row>
     <row r="130">
@@ -1870,7 +1870,7 @@
         <v>490</v>
       </c>
       <c r="C130" t="n">
-        <v>481.3108133912087</v>
+        <v>477.8390824019909</v>
       </c>
     </row>
     <row r="131">
@@ -1881,7 +1881,7 @@
         <v>489</v>
       </c>
       <c r="C131" t="n">
-        <v>483.6139792263508</v>
+        <v>480.3145286858082</v>
       </c>
     </row>
     <row r="132">
@@ -1892,7 +1892,7 @@
         <v>504</v>
       </c>
       <c r="C132" t="n">
-        <v>487.159472233057</v>
+        <v>484.084390103817</v>
       </c>
     </row>
     <row r="133">
@@ -1903,7 +1903,7 @@
         <v>503</v>
       </c>
       <c r="C133" t="n">
-        <v>493.8494394600392</v>
+        <v>491.9807886779308</v>
       </c>
     </row>
     <row r="134">
@@ -1914,7 +1914,7 @@
         <v>496</v>
       </c>
       <c r="C134" t="n">
-        <v>495.0874552309513</v>
+        <v>493.7717952311039</v>
       </c>
     </row>
     <row r="135">
@@ -1925,7 +1925,7 @@
         <v>494.9</v>
       </c>
       <c r="C135" t="n">
-        <v>495.1912409842014</v>
+        <v>493.5027618795634</v>
       </c>
     </row>
     <row r="136">
@@ -1936,7 +1936,7 @@
         <v>490</v>
       </c>
       <c r="C136" t="n">
-        <v>496.6484846502543</v>
+        <v>494.3664368748665</v>
       </c>
     </row>
     <row r="137">
@@ -1947,7 +1947,7 @@
         <v>490</v>
       </c>
       <c r="C137" t="n">
-        <v>488.2352935016156</v>
+        <v>485.1676539033651</v>
       </c>
     </row>
     <row r="138">
@@ -1958,7 +1958,7 @@
         <v>486.6</v>
       </c>
       <c r="C138" t="n">
-        <v>488.021303665638</v>
+        <v>484.7244380146265</v>
       </c>
     </row>
     <row r="139">
@@ -1969,7 +1969,7 @@
         <v>484.9</v>
       </c>
       <c r="C139" t="n">
-        <v>484.8882029592991</v>
+        <v>481.3151833176613</v>
       </c>
     </row>
     <row r="140">
@@ -1980,7 +1980,7 @@
         <v>488</v>
       </c>
       <c r="C140" t="n">
-        <v>484.2240521728992</v>
+        <v>480.6125030457974</v>
       </c>
     </row>
     <row r="141">
@@ -1991,7 +1991,7 @@
         <v>490</v>
       </c>
       <c r="C141" t="n">
-        <v>485.57568603158</v>
+        <v>482.2662470877171</v>
       </c>
     </row>
     <row r="142">
@@ -2002,7 +2002,7 @@
         <v>484.6000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>488.6697597831488</v>
+        <v>485.8057509541512</v>
       </c>
     </row>
     <row r="143">
@@ -2013,7 +2013,7 @@
         <v>480.7</v>
       </c>
       <c r="C143" t="n">
-        <v>482.3062787353992</v>
+        <v>479.6606589317322</v>
       </c>
     </row>
     <row r="144">
@@ -2024,7 +2024,7 @@
         <v>484</v>
       </c>
       <c r="C144" t="n">
-        <v>480.9350289791823</v>
+        <v>478.198986813426</v>
       </c>
     </row>
     <row r="145">
@@ -2035,7 +2035,7 @@
         <v>482.5</v>
       </c>
       <c r="C145" t="n">
-        <v>480.7153231233358</v>
+        <v>477.901022207737</v>
       </c>
     </row>
     <row r="146">
@@ -2046,7 +2046,7 @@
         <v>482.8</v>
       </c>
       <c r="C146" t="n">
-        <v>479.5016053140163</v>
+        <v>476.7898903727532</v>
       </c>
     </row>
     <row r="147">
@@ -2057,7 +2057,7 @@
         <v>483.8999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>477.9288024544716</v>
+        <v>474.913611727953</v>
       </c>
     </row>
     <row r="148">
@@ -2068,7 +2068,7 @@
         <v>490.7</v>
       </c>
       <c r="C148" t="n">
-        <v>478.8791834235191</v>
+        <v>475.7864557653666</v>
       </c>
     </row>
     <row r="149">
@@ -2079,7 +2079,7 @@
         <v>497</v>
       </c>
       <c r="C149" t="n">
-        <v>479.5627257585526</v>
+        <v>477.5080604732037</v>
       </c>
     </row>
     <row r="150">
@@ -2090,7 +2090,7 @@
         <v>501.1</v>
       </c>
       <c r="C150" t="n">
-        <v>490.9532999664545</v>
+        <v>490.5959901988506</v>
       </c>
     </row>
     <row r="151">
@@ -2101,7 +2101,7 @@
         <v>505.9999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>497.103503242135</v>
+        <v>497.9260345995426</v>
       </c>
     </row>
     <row r="152">
@@ -2112,7 +2112,7 @@
         <v>505.5</v>
       </c>
       <c r="C152" t="n">
-        <v>502.7352459579706</v>
+        <v>504.2329211980104</v>
       </c>
     </row>
     <row r="153">
@@ -2123,7 +2123,7 @@
         <v>496</v>
       </c>
       <c r="C153" t="n">
-        <v>506.9069357693195</v>
+        <v>508.2522488415241</v>
       </c>
     </row>
     <row r="154">
@@ -2134,7 +2134,7 @@
         <v>495.9</v>
       </c>
       <c r="C154" t="n">
-        <v>502.3319056481123</v>
+        <v>502.3732736349106</v>
       </c>
     </row>
     <row r="155">
@@ -2145,7 +2145,7 @@
         <v>495.1</v>
       </c>
       <c r="C155" t="n">
-        <v>502.5320151150227</v>
+        <v>501.2869469851256</v>
       </c>
     </row>
     <row r="156">
@@ -2156,7 +2156,7 @@
         <v>490</v>
       </c>
       <c r="C156" t="n">
-        <v>500.747934114933</v>
+        <v>498.6234865665436</v>
       </c>
     </row>
     <row r="157">
@@ -2167,7 +2167,7 @@
         <v>490</v>
       </c>
       <c r="C157" t="n">
-        <v>494.8085992991925</v>
+        <v>492.1354040890932</v>
       </c>
     </row>
     <row r="158">
@@ -2178,7 +2178,7 @@
         <v>491.0000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>494.7573892235756</v>
+        <v>492.1208994448185</v>
       </c>
     </row>
     <row r="159">
@@ -2189,7 +2189,7 @@
         <v>495.0000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>493.7592121839523</v>
+        <v>491.4095085829496</v>
       </c>
     </row>
     <row r="160">
@@ -2200,7 +2200,7 @@
         <v>492.2</v>
       </c>
       <c r="C160" t="n">
-        <v>491.7799671471119</v>
+        <v>490.1894114613533</v>
       </c>
     </row>
     <row r="161">
@@ -2211,7 +2211,7 @@
         <v>491.2</v>
       </c>
       <c r="C161" t="n">
-        <v>491.3657800555229</v>
+        <v>490.1995169162751</v>
       </c>
     </row>
     <row r="162">
@@ -2222,7 +2222,7 @@
         <v>491.5</v>
       </c>
       <c r="C162" t="n">
-        <v>492.926233971119</v>
+        <v>491.8069670498371</v>
       </c>
     </row>
     <row r="163">
@@ -2233,7 +2233,7 @@
         <v>490</v>
       </c>
       <c r="C163" t="n">
-        <v>487.8262176632881</v>
+        <v>486.3002354443074</v>
       </c>
     </row>
     <row r="164">
@@ -2244,7 +2244,7 @@
         <v>495.0000000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>485.2985273480415</v>
+        <v>483.1016638755798</v>
       </c>
     </row>
     <row r="165">
@@ -2255,7 +2255,7 @@
         <v>496</v>
       </c>
       <c r="C165" t="n">
-        <v>488.3423371911049</v>
+        <v>486.0103766620159</v>
       </c>
     </row>
     <row r="166">
@@ -2266,7 +2266,7 @@
         <v>491.5</v>
       </c>
       <c r="C166" t="n">
-        <v>491.8748179614544</v>
+        <v>489.4425442099571</v>
       </c>
     </row>
     <row r="167">
@@ -2277,7 +2277,7 @@
         <v>490.9</v>
       </c>
       <c r="C167" t="n">
-        <v>488.8341880202294</v>
+        <v>485.8701878607273</v>
       </c>
     </row>
     <row r="168">
@@ -2288,7 +2288,7 @@
         <v>491.0000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>482.435523211956</v>
+        <v>479.170076161623</v>
       </c>
     </row>
     <row r="169">
@@ -2299,7 +2299,7 @@
         <v>494.1000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>486.7254058778286</v>
+        <v>483.2970815241337</v>
       </c>
     </row>
     <row r="170">
@@ -2310,7 +2310,7 @@
         <v>498</v>
       </c>
       <c r="C170" t="n">
-        <v>496.3012315660715</v>
+        <v>493.4961387097836</v>
       </c>
     </row>
   </sheetData>

--- a/CATI/saved_states/CHCL_backtest_results.xlsx
+++ b/CATI/saved_states/CHCL_backtest_results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Backtest_Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,1872 +446,6554 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Real_Market_Price</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Hybrid_Prediction</t>
+          <t>Ensemble_Pred</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45741</v>
+        <v>44770</v>
       </c>
       <c r="B2" t="n">
-        <v>476.91</v>
+        <v>410</v>
       </c>
       <c r="C2" t="n">
-        <v>490.3951686680317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45742</v>
+        <v>44771</v>
       </c>
       <c r="B3" t="n">
-        <v>478.53</v>
+        <v>406</v>
       </c>
       <c r="C3" t="n">
-        <v>481.6475806027651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45743</v>
+        <v>44773</v>
       </c>
       <c r="B4" t="n">
-        <v>488.59</v>
+        <v>412</v>
       </c>
       <c r="C4" t="n">
-        <v>480.4717972666026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45746</v>
+        <v>44774</v>
       </c>
       <c r="B5" t="n">
-        <v>490.31</v>
+        <v>424.9</v>
       </c>
       <c r="C5" t="n">
-        <v>487.9133723348379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45748</v>
+        <v>44775</v>
       </c>
       <c r="B6" t="n">
-        <v>483.04</v>
+        <v>448</v>
       </c>
       <c r="C6" t="n">
-        <v>487.8991213023663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45749</v>
+        <v>44776</v>
       </c>
       <c r="B7" t="n">
-        <v>481.34</v>
+        <v>444</v>
       </c>
       <c r="C7" t="n">
-        <v>480.7392016500235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45750</v>
+        <v>44777</v>
       </c>
       <c r="B8" t="n">
-        <v>481.48</v>
+        <v>430.1</v>
       </c>
       <c r="C8" t="n">
-        <v>480.14697907269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45754</v>
+        <v>44778</v>
       </c>
       <c r="B9" t="n">
-        <v>477.23</v>
+        <v>426</v>
       </c>
       <c r="C9" t="n">
-        <v>478.479676553607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45755</v>
+        <v>44780</v>
       </c>
       <c r="B10" t="n">
-        <v>473.33</v>
+        <v>428</v>
       </c>
       <c r="C10" t="n">
-        <v>476.961809912324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45756</v>
+        <v>44781</v>
       </c>
       <c r="B11" t="n">
-        <v>475.25</v>
+        <v>419.9</v>
       </c>
       <c r="C11" t="n">
-        <v>472.9805337935686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45757</v>
+        <v>44782</v>
       </c>
       <c r="B12" t="n">
-        <v>473.93</v>
+        <v>406.9</v>
       </c>
       <c r="C12" t="n">
-        <v>475.4341206908226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45760</v>
+        <v>44783</v>
       </c>
       <c r="B13" t="n">
-        <v>475.08</v>
+        <v>402.9</v>
       </c>
       <c r="C13" t="n">
-        <v>473.1151919066906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45762</v>
+        <v>44784</v>
       </c>
       <c r="B14" t="n">
-        <v>484.11</v>
+        <v>399</v>
       </c>
       <c r="C14" t="n">
-        <v>472.8932035446167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45763</v>
+        <v>44787</v>
       </c>
       <c r="B15" t="n">
-        <v>483.45</v>
+        <v>393</v>
       </c>
       <c r="C15" t="n">
-        <v>478.1025850653648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45764</v>
+        <v>44788</v>
       </c>
       <c r="B16" t="n">
-        <v>489.25</v>
+        <v>411</v>
       </c>
       <c r="C16" t="n">
-        <v>480.4666177332401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45767</v>
+        <v>44789</v>
       </c>
       <c r="B17" t="n">
-        <v>495.02</v>
+        <v>396.2</v>
       </c>
       <c r="C17" t="n">
-        <v>489.0146620810032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45768</v>
+        <v>44790</v>
       </c>
       <c r="B18" t="n">
-        <v>496.72</v>
+        <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>496.6697490245104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45769</v>
+        <v>44791</v>
       </c>
       <c r="B19" t="n">
-        <v>487.77</v>
+        <v>407</v>
       </c>
       <c r="C19" t="n">
-        <v>500.5151965141296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45770</v>
+        <v>44794</v>
       </c>
       <c r="B20" t="n">
-        <v>475.11</v>
+        <v>404</v>
       </c>
       <c r="C20" t="n">
-        <v>495.90094435215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45771</v>
+        <v>44795</v>
       </c>
       <c r="B21" t="n">
-        <v>477.07</v>
+        <v>404</v>
       </c>
       <c r="C21" t="n">
-        <v>487.0115580260754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45774</v>
+        <v>44796</v>
       </c>
       <c r="B22" t="n">
-        <v>489.72</v>
+        <v>404</v>
       </c>
       <c r="C22" t="n">
-        <v>483.7436919093132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45775</v>
+        <v>44797</v>
       </c>
       <c r="B23" t="n">
-        <v>482.39</v>
+        <v>403.7</v>
       </c>
       <c r="C23" t="n">
-        <v>490.1603436470032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45776</v>
+        <v>44798</v>
       </c>
       <c r="B24" t="n">
-        <v>478.52</v>
+        <v>397</v>
       </c>
       <c r="C24" t="n">
-        <v>489.9357411324978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45777</v>
+        <v>44804</v>
       </c>
       <c r="B25" t="n">
-        <v>486.06</v>
+        <v>383</v>
       </c>
       <c r="C25" t="n">
-        <v>488.6426623374224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45781</v>
+        <v>44805</v>
       </c>
       <c r="B26" t="n">
-        <v>492.91</v>
+        <v>382</v>
       </c>
       <c r="C26" t="n">
-        <v>486.0633034944535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45782</v>
+        <v>44806</v>
       </c>
       <c r="B27" t="n">
-        <v>486.7</v>
+        <v>392</v>
       </c>
       <c r="C27" t="n">
-        <v>494.7134948730469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45783</v>
+        <v>44808</v>
       </c>
       <c r="B28" t="n">
-        <v>493.61</v>
+        <v>394</v>
       </c>
       <c r="C28" t="n">
-        <v>492.4450153291226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45784</v>
+        <v>44809</v>
       </c>
       <c r="B29" t="n">
-        <v>522.04</v>
+        <v>390</v>
       </c>
       <c r="C29" t="n">
-        <v>496.7367708206177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45785</v>
+        <v>44816</v>
       </c>
       <c r="B30" t="n">
-        <v>514.79</v>
+        <v>372</v>
       </c>
       <c r="C30" t="n">
-        <v>516.1136294782162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45788</v>
+        <v>44817</v>
       </c>
       <c r="B31" t="n">
-        <v>498.37</v>
+        <v>373</v>
       </c>
       <c r="C31" t="n">
-        <v>515.2553095936776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45790</v>
+        <v>44819</v>
       </c>
       <c r="B32" t="n">
-        <v>490.31</v>
+        <v>370</v>
       </c>
       <c r="C32" t="n">
-        <v>511.6388052821159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45791</v>
+        <v>44820</v>
       </c>
       <c r="B33" t="n">
-        <v>482.02</v>
+        <v>370</v>
       </c>
       <c r="C33" t="n">
-        <v>503.618039381504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45792</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>482.6499999999999</v>
+        <v>364</v>
       </c>
       <c r="C34" t="n">
-        <v>496.3379174888134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45795</v>
+        <v>44824</v>
       </c>
       <c r="B35" t="n">
-        <v>479.23</v>
+        <v>354.1</v>
       </c>
       <c r="C35" t="n">
-        <v>486.9563096702099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45796</v>
+        <v>44825</v>
       </c>
       <c r="B36" t="n">
-        <v>482.12</v>
+        <v>355.3</v>
       </c>
       <c r="C36" t="n">
-        <v>482.9251110434532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45797</v>
+        <v>44826</v>
       </c>
       <c r="B37" t="n">
-        <v>494.81</v>
+        <v>358</v>
       </c>
       <c r="C37" t="n">
-        <v>480.4865555226803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45798</v>
+        <v>44829</v>
       </c>
       <c r="B38" t="n">
-        <v>490</v>
+        <v>357</v>
       </c>
       <c r="C38" t="n">
-        <v>489.2142935872078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45799</v>
+        <v>44831</v>
       </c>
       <c r="B39" t="n">
-        <v>486.11</v>
+        <v>361.9</v>
       </c>
       <c r="C39" t="n">
-        <v>487.1682511031628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45802</v>
+        <v>44832</v>
       </c>
       <c r="B40" t="n">
-        <v>488.64</v>
+        <v>358.1</v>
       </c>
       <c r="C40" t="n">
-        <v>485.5936924695969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45803</v>
+        <v>44833</v>
       </c>
       <c r="B41" t="n">
-        <v>487.26</v>
+        <v>365</v>
       </c>
       <c r="C41" t="n">
-        <v>481.5757401823998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45804</v>
+        <v>44843</v>
       </c>
       <c r="B42" t="n">
-        <v>487.12</v>
+        <v>371</v>
       </c>
       <c r="C42" t="n">
-        <v>487.0564082980156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45805</v>
+        <v>44847</v>
       </c>
       <c r="B43" t="n">
-        <v>495.14</v>
+        <v>370</v>
       </c>
       <c r="C43" t="n">
-        <v>480.2442587077618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45810</v>
+        <v>44850</v>
       </c>
       <c r="B44" t="n">
-        <v>488.51</v>
+        <v>365</v>
       </c>
       <c r="C44" t="n">
-        <v>491.5947232335806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45811</v>
+        <v>44853</v>
       </c>
       <c r="B45" t="n">
-        <v>488.37</v>
+        <v>359.5</v>
       </c>
       <c r="C45" t="n">
-        <v>487.9084659218788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45812</v>
+        <v>44854</v>
       </c>
       <c r="B46" t="n">
-        <v>483.25</v>
+        <v>363</v>
       </c>
       <c r="C46" t="n">
-        <v>487.6006592273712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45813</v>
+        <v>44857</v>
       </c>
       <c r="B47" t="n">
-        <v>486.77</v>
+        <v>367</v>
       </c>
       <c r="C47" t="n">
-        <v>480.3287504553795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45816</v>
+        <v>44865</v>
       </c>
       <c r="B48" t="n">
-        <v>525.75</v>
+        <v>373</v>
       </c>
       <c r="C48" t="n">
-        <v>481.9494079113007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45817</v>
+        <v>44866</v>
       </c>
       <c r="B49" t="n">
-        <v>551.66</v>
+        <v>384.5</v>
       </c>
       <c r="C49" t="n">
-        <v>513.8474714577198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45818</v>
+        <v>44868</v>
       </c>
       <c r="B50" t="n">
-        <v>555.85</v>
+        <v>378</v>
       </c>
       <c r="C50" t="n">
-        <v>535.6611298620701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45819</v>
+        <v>44871</v>
       </c>
       <c r="B51" t="n">
-        <v>581.12</v>
+        <v>387.5</v>
       </c>
       <c r="C51" t="n">
-        <v>549.0859536051751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45820</v>
+        <v>44872</v>
       </c>
       <c r="B52" t="n">
-        <v>567.37</v>
+        <v>387</v>
       </c>
       <c r="C52" t="n">
-        <v>567.2776452898979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45823</v>
+        <v>44873</v>
       </c>
       <c r="B53" t="n">
-        <v>581.76</v>
+        <v>387</v>
       </c>
       <c r="C53" t="n">
-        <v>569.3376754403115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45824</v>
+        <v>44874</v>
       </c>
       <c r="B54" t="n">
-        <v>574.95</v>
+        <v>377</v>
       </c>
       <c r="C54" t="n">
-        <v>585.8378154158593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45825</v>
+        <v>44875</v>
       </c>
       <c r="B55" t="n">
-        <v>574.13</v>
+        <v>368</v>
       </c>
       <c r="C55" t="n">
-        <v>588.7206402897835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45826</v>
+        <v>44878</v>
       </c>
       <c r="B56" t="n">
-        <v>574.9</v>
+        <v>365</v>
       </c>
       <c r="C56" t="n">
-        <v>587.1455549240112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45827</v>
+        <v>44879</v>
       </c>
       <c r="B57" t="n">
-        <v>564.36</v>
+        <v>368.2</v>
       </c>
       <c r="C57" t="n">
-        <v>584.997872632742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45830</v>
+        <v>44880</v>
       </c>
       <c r="B58" t="n">
-        <v>540.99</v>
+        <v>374.4</v>
       </c>
       <c r="C58" t="n">
-        <v>579.7954946994781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45831</v>
+        <v>44881</v>
       </c>
       <c r="B59" t="n">
-        <v>542.91</v>
+        <v>374</v>
       </c>
       <c r="C59" t="n">
-        <v>577.6396773219109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45832</v>
+        <v>44882</v>
       </c>
       <c r="B60" t="n">
-        <v>535.25</v>
+        <v>384</v>
       </c>
       <c r="C60" t="n">
-        <v>567.499067902565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45833</v>
+        <v>44887</v>
       </c>
       <c r="B61" t="n">
-        <v>545.6799999999999</v>
+        <v>388.9</v>
       </c>
       <c r="C61" t="n">
-        <v>562.9883283734322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45834</v>
+        <v>44888</v>
       </c>
       <c r="B62" t="n">
-        <v>541.78</v>
+        <v>382</v>
       </c>
       <c r="C62" t="n">
-        <v>562.3201393067837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45837</v>
+        <v>44889</v>
       </c>
       <c r="B63" t="n">
-        <v>546.67</v>
+        <v>381</v>
       </c>
       <c r="C63" t="n">
-        <v>559.7621521353722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45838</v>
+        <v>44892</v>
       </c>
       <c r="B64" t="n">
-        <v>544.22</v>
+        <v>390</v>
       </c>
       <c r="C64" t="n">
-        <v>556.1790270388127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45839</v>
+        <v>44893</v>
       </c>
       <c r="B65" t="n">
-        <v>548.9400000000001</v>
+        <v>388</v>
       </c>
       <c r="C65" t="n">
-        <v>552.2424451231957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45840</v>
+        <v>44894</v>
       </c>
       <c r="B66" t="n">
-        <v>543.91</v>
+        <v>381.1</v>
       </c>
       <c r="C66" t="n">
-        <v>549.7180322527886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45841</v>
+        <v>44895</v>
       </c>
       <c r="B67" t="n">
-        <v>536.72</v>
+        <v>383.1</v>
       </c>
       <c r="C67" t="n">
-        <v>544.4663170695305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45844</v>
+        <v>44896</v>
       </c>
       <c r="B68" t="n">
-        <v>534.5599999999999</v>
+        <v>390</v>
       </c>
       <c r="C68" t="n">
-        <v>542.3508044600487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45845</v>
+        <v>44899</v>
       </c>
       <c r="B69" t="n">
-        <v>528.08</v>
+        <v>397</v>
       </c>
       <c r="C69" t="n">
-        <v>535.7818685889245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45846</v>
+        <v>44900</v>
       </c>
       <c r="B70" t="n">
-        <v>528.37</v>
+        <v>391</v>
       </c>
       <c r="C70" t="n">
-        <v>533.993320119381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45847</v>
+        <v>44901</v>
       </c>
       <c r="B71" t="n">
-        <v>526.85</v>
+        <v>387</v>
       </c>
       <c r="C71" t="n">
-        <v>532.1956416249276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45848</v>
+        <v>44902</v>
       </c>
       <c r="B72" t="n">
-        <v>524.22</v>
+        <v>381</v>
       </c>
       <c r="C72" t="n">
-        <v>526.4823529601098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45851</v>
+        <v>44906</v>
       </c>
       <c r="B73" t="n">
-        <v>521.61</v>
+        <v>382</v>
       </c>
       <c r="C73" t="n">
-        <v>525.9345124483109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45852</v>
+        <v>44907</v>
       </c>
       <c r="B74" t="n">
-        <v>520</v>
+        <v>384</v>
       </c>
       <c r="C74" t="n">
-        <v>529.349570953846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45853</v>
+        <v>44908</v>
       </c>
       <c r="B75" t="n">
-        <v>528.09</v>
+        <v>385</v>
       </c>
       <c r="C75" t="n">
-        <v>521.8593999624253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45854</v>
+        <v>44909</v>
       </c>
       <c r="B76" t="n">
-        <v>533.45</v>
+        <v>388</v>
       </c>
       <c r="C76" t="n">
-        <v>523.6308198809623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45855</v>
+        <v>44910</v>
       </c>
       <c r="B77" t="n">
-        <v>547.62</v>
+        <v>390</v>
       </c>
       <c r="C77" t="n">
-        <v>527.9549011230469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45858</v>
+        <v>44913</v>
       </c>
       <c r="B78" t="n">
-        <v>544.03</v>
+        <v>355.5</v>
       </c>
       <c r="C78" t="n">
-        <v>537.7660493016243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45859</v>
+        <v>44914</v>
       </c>
       <c r="B79" t="n">
-        <v>546.26</v>
+        <v>351.3</v>
       </c>
       <c r="C79" t="n">
-        <v>541.8316610991955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45860</v>
+        <v>44915</v>
       </c>
       <c r="B80" t="n">
-        <v>558.08</v>
+        <v>354</v>
       </c>
       <c r="C80" t="n">
-        <v>545.0218439698219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45861</v>
+        <v>44916</v>
       </c>
       <c r="B81" t="n">
-        <v>554.3</v>
+        <v>352.3</v>
       </c>
       <c r="C81" t="n">
-        <v>545.0411184668541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45862</v>
+        <v>44917</v>
       </c>
       <c r="B82" t="n">
-        <v>572.71</v>
+        <v>352</v>
       </c>
       <c r="C82" t="n">
-        <v>551.9381889939308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45865</v>
+        <v>44921</v>
       </c>
       <c r="B83" t="n">
-        <v>559.11</v>
+        <v>366.1</v>
       </c>
       <c r="C83" t="n">
-        <v>555.3985074520111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45866</v>
+        <v>44922</v>
       </c>
       <c r="B84" t="n">
-        <v>555.6900000000001</v>
+        <v>378.1</v>
       </c>
       <c r="C84" t="n">
-        <v>557.8391113758088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45867</v>
+        <v>44923</v>
       </c>
       <c r="B85" t="n">
-        <v>554.55</v>
+        <v>378.2</v>
       </c>
       <c r="C85" t="n">
-        <v>562.3310055971145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45868</v>
+        <v>44924</v>
       </c>
       <c r="B86" t="n">
-        <v>544.9299999999999</v>
+        <v>389.8</v>
       </c>
       <c r="C86" t="n">
-        <v>558.9317100405693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45869</v>
+        <v>44927</v>
       </c>
       <c r="B87" t="n">
-        <v>537.2</v>
+        <v>392.1</v>
       </c>
       <c r="C87" t="n">
-        <v>555.6262703597546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45872</v>
+        <v>44928</v>
       </c>
       <c r="B88" t="n">
-        <v>538.36</v>
+        <v>397</v>
       </c>
       <c r="C88" t="n">
-        <v>548.4138042926788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45873</v>
+        <v>44929</v>
       </c>
       <c r="B89" t="n">
-        <v>539.83</v>
+        <v>395</v>
       </c>
       <c r="C89" t="n">
-        <v>548.1492676734924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45874</v>
+        <v>44930</v>
       </c>
       <c r="B90" t="n">
-        <v>531.38</v>
+        <v>414.1</v>
       </c>
       <c r="C90" t="n">
-        <v>543.3408659219742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45875</v>
+        <v>44931</v>
       </c>
       <c r="B91" t="n">
-        <v>529.75</v>
+        <v>410.1</v>
       </c>
       <c r="C91" t="n">
-        <v>536.4698783934117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45876</v>
+        <v>44934</v>
       </c>
       <c r="B92" t="n">
-        <v>529.59</v>
+        <v>415.5</v>
       </c>
       <c r="C92" t="n">
-        <v>534.101748919487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45880</v>
+        <v>44935</v>
       </c>
       <c r="B93" t="n">
-        <v>526.85</v>
+        <v>420.2</v>
       </c>
       <c r="C93" t="n">
-        <v>530.67740432024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45881</v>
+        <v>44936</v>
       </c>
       <c r="B94" t="n">
-        <v>520.12</v>
+        <v>425.4</v>
       </c>
       <c r="C94" t="n">
-        <v>528.5768352985382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45882</v>
+        <v>44938</v>
       </c>
       <c r="B95" t="n">
-        <v>519.77</v>
+        <v>415</v>
       </c>
       <c r="C95" t="n">
-        <v>524.548582470417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45883</v>
+        <v>44943</v>
       </c>
       <c r="B96" t="n">
-        <v>523.3099999999999</v>
+        <v>425</v>
       </c>
       <c r="C96" t="n">
-        <v>522.0164832115173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45886</v>
+        <v>44944</v>
       </c>
       <c r="B97" t="n">
-        <v>515.83</v>
+        <v>419</v>
       </c>
       <c r="C97" t="n">
-        <v>520.7271598219871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45887</v>
+        <v>44945</v>
       </c>
       <c r="B98" t="n">
-        <v>517.23</v>
+        <v>420</v>
       </c>
       <c r="C98" t="n">
-        <v>517.7734797120095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45888</v>
+        <v>44949</v>
       </c>
       <c r="B99" t="n">
-        <v>516.8</v>
+        <v>418</v>
       </c>
       <c r="C99" t="n">
-        <v>514.1891255736351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45889</v>
+        <v>44950</v>
       </c>
       <c r="B100" t="n">
-        <v>513.28</v>
+        <v>422.9</v>
       </c>
       <c r="C100" t="n">
-        <v>513.9696245580911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45890</v>
+        <v>44951</v>
       </c>
       <c r="B101" t="n">
-        <v>511.59</v>
+        <v>420</v>
       </c>
       <c r="C101" t="n">
-        <v>507.310041975975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45893</v>
+        <v>44952</v>
       </c>
       <c r="B102" t="n">
-        <v>505.9</v>
+        <v>438</v>
       </c>
       <c r="C102" t="n">
-        <v>504.8419601887464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45894</v>
+        <v>44956</v>
       </c>
       <c r="B103" t="n">
-        <v>506.26</v>
+        <v>448</v>
       </c>
       <c r="C103" t="n">
-        <v>504.5196293413639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45895</v>
+        <v>44962</v>
       </c>
       <c r="B104" t="n">
-        <v>508.27</v>
+        <v>485</v>
       </c>
       <c r="C104" t="n">
-        <v>501.6700471222401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45896</v>
+        <v>44972</v>
       </c>
       <c r="B105" t="n">
-        <v>517.78</v>
+        <v>461.5</v>
       </c>
       <c r="C105" t="n">
-        <v>500.9688299953938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45897</v>
+        <v>44973</v>
       </c>
       <c r="B106" t="n">
-        <v>510.16</v>
+        <v>458.5</v>
       </c>
       <c r="C106" t="n">
-        <v>506.4462791919709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45900</v>
+        <v>44977</v>
       </c>
       <c r="B107" t="n">
-        <v>506.0699999999999</v>
+        <v>454</v>
       </c>
       <c r="C107" t="n">
-        <v>502.6349522441625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45901</v>
+        <v>44980</v>
       </c>
       <c r="B108" t="n">
-        <v>508.22</v>
+        <v>460.3</v>
       </c>
       <c r="C108" t="n">
-        <v>502.1530995726586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45902</v>
+        <v>44983</v>
       </c>
       <c r="B109" t="n">
-        <v>504.71</v>
+        <v>459</v>
       </c>
       <c r="C109" t="n">
-        <v>502.8834430396557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45903</v>
+        <v>44994</v>
       </c>
       <c r="B110" t="n">
-        <v>504.28</v>
+        <v>484</v>
       </c>
       <c r="C110" t="n">
-        <v>500.5539796113968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45904</v>
+        <v>45005</v>
       </c>
       <c r="B111" t="n">
-        <v>503.2</v>
+        <v>479</v>
       </c>
       <c r="C111" t="n">
-        <v>499.9670048475265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45907</v>
+        <v>45014</v>
       </c>
       <c r="B112" t="n">
-        <v>501.49</v>
+        <v>479.9</v>
       </c>
       <c r="C112" t="n">
-        <v>497.9101936161518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45908</v>
+        <v>45015</v>
       </c>
       <c r="B113" t="n">
-        <v>497.36</v>
+        <v>480</v>
       </c>
       <c r="C113" t="n">
-        <v>497.9537270575762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45918</v>
+        <v>45018</v>
       </c>
       <c r="B114" t="n">
-        <v>464.0000000000001</v>
+        <v>473</v>
       </c>
       <c r="C114" t="n">
-        <v>494.1427512645722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45921</v>
+        <v>45019</v>
       </c>
       <c r="B115" t="n">
-        <v>491.68</v>
+        <v>467</v>
       </c>
       <c r="C115" t="n">
-        <v>480.9562445819378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45923</v>
+        <v>45020</v>
       </c>
       <c r="B116" t="n">
-        <v>502.2</v>
+        <v>470.9</v>
       </c>
       <c r="C116" t="n">
-        <v>490.6126602977515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45924</v>
+        <v>45021</v>
       </c>
       <c r="B117" t="n">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C117" t="n">
-        <v>497.1875365376472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45925</v>
+        <v>45022</v>
       </c>
       <c r="B118" t="n">
-        <v>497</v>
+        <v>468.4</v>
       </c>
       <c r="C118" t="n">
-        <v>497.6409164071083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45928</v>
+        <v>45025</v>
       </c>
       <c r="B119" t="n">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="C119" t="n">
-        <v>497.4087055385113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45937</v>
+        <v>45026</v>
       </c>
       <c r="B120" t="n">
-        <v>497.3</v>
+        <v>462.6</v>
       </c>
       <c r="C120" t="n">
-        <v>500.1680214643479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45938</v>
+        <v>45027</v>
       </c>
       <c r="B121" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C121" t="n">
-        <v>498.5940090715885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45939</v>
+        <v>45028</v>
       </c>
       <c r="B122" t="n">
-        <v>495.9</v>
+        <v>490</v>
       </c>
       <c r="C122" t="n">
-        <v>493.5222021996975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45942</v>
+        <v>45029</v>
       </c>
       <c r="B123" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C123" t="n">
-        <v>496.9993760883808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45943</v>
+        <v>45032</v>
       </c>
       <c r="B124" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C124" t="n">
-        <v>491.2520254075527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45944</v>
+        <v>45033</v>
       </c>
       <c r="B125" t="n">
-        <v>482.9999999999999</v>
+        <v>481.7</v>
       </c>
       <c r="C125" t="n">
-        <v>486.3920038998127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45945</v>
+        <v>45034</v>
       </c>
       <c r="B126" t="n">
-        <v>482.7</v>
+        <v>481</v>
       </c>
       <c r="C126" t="n">
-        <v>485.2690303444862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45946</v>
+        <v>45035</v>
       </c>
       <c r="B127" t="n">
         <v>484</v>
       </c>
       <c r="C127" t="n">
-        <v>480.7984687775374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45949</v>
+        <v>45036</v>
       </c>
       <c r="B128" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C128" t="n">
-        <v>481.7617351770401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45956</v>
+        <v>45039</v>
       </c>
       <c r="B129" t="n">
-        <v>480.1</v>
+        <v>477.1</v>
       </c>
       <c r="C129" t="n">
-        <v>480.2126645296812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45958</v>
+        <v>45040</v>
       </c>
       <c r="B130" t="n">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C130" t="n">
-        <v>477.8390824019909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45959</v>
+        <v>45041</v>
       </c>
       <c r="B131" t="n">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C131" t="n">
-        <v>480.3145286858082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45960</v>
+        <v>45042</v>
       </c>
       <c r="B132" t="n">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="C132" t="n">
-        <v>484.084390103817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45963</v>
+        <v>45043</v>
       </c>
       <c r="B133" t="n">
-        <v>503</v>
+        <v>475.9</v>
       </c>
       <c r="C133" t="n">
-        <v>491.9807886779308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45964</v>
+        <v>45046</v>
       </c>
       <c r="B134" t="n">
-        <v>496</v>
+        <v>469.5</v>
       </c>
       <c r="C134" t="n">
-        <v>493.7717952311039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45965</v>
+        <v>45048</v>
       </c>
       <c r="B135" t="n">
-        <v>494.9</v>
+        <v>468</v>
       </c>
       <c r="C135" t="n">
-        <v>493.5027618795634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45966</v>
+        <v>45049</v>
       </c>
       <c r="B136" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C136" t="n">
-        <v>494.3664368748665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45967</v>
+        <v>45050</v>
       </c>
       <c r="B137" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C137" t="n">
-        <v>485.1676539033651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45970</v>
+        <v>45053</v>
       </c>
       <c r="B138" t="n">
-        <v>486.6</v>
+        <v>464</v>
       </c>
       <c r="C138" t="n">
-        <v>484.7244380146265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45971</v>
+        <v>45054</v>
       </c>
       <c r="B139" t="n">
-        <v>484.9</v>
+        <v>461</v>
       </c>
       <c r="C139" t="n">
-        <v>481.3151833176613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45972</v>
+        <v>45055</v>
       </c>
       <c r="B140" t="n">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C140" t="n">
-        <v>480.6125030457974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45973</v>
+        <v>45056</v>
       </c>
       <c r="B141" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C141" t="n">
-        <v>482.2662470877171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45974</v>
+        <v>45057</v>
       </c>
       <c r="B142" t="n">
-        <v>484.6000000000001</v>
+        <v>472</v>
       </c>
       <c r="C142" t="n">
-        <v>485.8057509541512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45977</v>
+        <v>45060</v>
       </c>
       <c r="B143" t="n">
-        <v>480.7</v>
+        <v>464</v>
       </c>
       <c r="C143" t="n">
-        <v>479.6606589317322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45978</v>
+        <v>45061</v>
       </c>
       <c r="B144" t="n">
-        <v>484</v>
+        <v>462.5</v>
       </c>
       <c r="C144" t="n">
-        <v>478.198986813426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45979</v>
+        <v>45062</v>
       </c>
       <c r="B145" t="n">
-        <v>482.5</v>
+        <v>460</v>
       </c>
       <c r="C145" t="n">
-        <v>477.901022207737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45980</v>
+        <v>45063</v>
       </c>
       <c r="B146" t="n">
-        <v>482.8</v>
+        <v>460.9</v>
       </c>
       <c r="C146" t="n">
-        <v>476.7898903727532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45981</v>
+        <v>45064</v>
       </c>
       <c r="B147" t="n">
-        <v>483.8999999999999</v>
+        <v>468.9</v>
       </c>
       <c r="C147" t="n">
-        <v>474.913611727953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45984</v>
+        <v>45067</v>
       </c>
       <c r="B148" t="n">
-        <v>490.7</v>
+        <v>466</v>
       </c>
       <c r="C148" t="n">
-        <v>475.7864557653666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45985</v>
+        <v>45068</v>
       </c>
       <c r="B149" t="n">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C149" t="n">
-        <v>477.5080604732037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45986</v>
+        <v>45069</v>
       </c>
       <c r="B150" t="n">
-        <v>501.1</v>
+        <v>480</v>
       </c>
       <c r="C150" t="n">
-        <v>490.5959901988506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45987</v>
+        <v>45070</v>
       </c>
       <c r="B151" t="n">
-        <v>505.9999999999999</v>
+        <v>475.5</v>
       </c>
       <c r="C151" t="n">
-        <v>497.9260345995426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45988</v>
+        <v>45074</v>
       </c>
       <c r="B152" t="n">
-        <v>505.5</v>
+        <v>504</v>
       </c>
       <c r="C152" t="n">
-        <v>504.2329211980104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45991</v>
+        <v>45076</v>
       </c>
       <c r="B153" t="n">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C153" t="n">
-        <v>508.2522488415241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45992</v>
+        <v>45077</v>
       </c>
       <c r="B154" t="n">
-        <v>495.9</v>
+        <v>497.6</v>
       </c>
       <c r="C154" t="n">
-        <v>502.3732736349106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45993</v>
+        <v>45078</v>
       </c>
       <c r="B155" t="n">
-        <v>495.1</v>
+        <v>505</v>
       </c>
       <c r="C155" t="n">
-        <v>501.2869469851256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45994</v>
+        <v>45081</v>
       </c>
       <c r="B156" t="n">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="C156" t="n">
-        <v>498.6234865665436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45998</v>
+        <v>45082</v>
       </c>
       <c r="B157" t="n">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="C157" t="n">
-        <v>492.1354040890932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45999</v>
+        <v>45083</v>
       </c>
       <c r="B158" t="n">
-        <v>491.0000000000001</v>
+        <v>556</v>
       </c>
       <c r="C158" t="n">
-        <v>492.1208994448185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>46000</v>
+        <v>45084</v>
       </c>
       <c r="B159" t="n">
-        <v>495.0000000000001</v>
+        <v>548.1</v>
       </c>
       <c r="C159" t="n">
-        <v>491.4095085829496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>46001</v>
+        <v>45085</v>
       </c>
       <c r="B160" t="n">
-        <v>492.2</v>
+        <v>540</v>
       </c>
       <c r="C160" t="n">
-        <v>490.1894114613533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>46002</v>
+        <v>45088</v>
       </c>
       <c r="B161" t="n">
-        <v>491.2</v>
+        <v>550.6</v>
       </c>
       <c r="C161" t="n">
-        <v>490.1995169162751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>46005</v>
+        <v>45089</v>
       </c>
       <c r="B162" t="n">
-        <v>491.5</v>
+        <v>547</v>
       </c>
       <c r="C162" t="n">
-        <v>491.8069670498371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>46006</v>
+        <v>45090</v>
       </c>
       <c r="B163" t="n">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="C163" t="n">
-        <v>486.3002354443074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>46007</v>
+        <v>45091</v>
       </c>
       <c r="B164" t="n">
-        <v>495.0000000000001</v>
+        <v>572</v>
       </c>
       <c r="C164" t="n">
-        <v>483.1016638755798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>46008</v>
+        <v>45092</v>
       </c>
       <c r="B165" t="n">
-        <v>496</v>
+        <v>563.1</v>
       </c>
       <c r="C165" t="n">
-        <v>486.0103766620159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>46009</v>
+        <v>45095</v>
       </c>
       <c r="B166" t="n">
-        <v>491.5</v>
+        <v>588</v>
       </c>
       <c r="C166" t="n">
-        <v>489.4425442099571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>46012</v>
+        <v>45096</v>
       </c>
       <c r="B167" t="n">
-        <v>490.9</v>
+        <v>581</v>
       </c>
       <c r="C167" t="n">
-        <v>485.8701878607273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>46013</v>
+        <v>45097</v>
       </c>
       <c r="B168" t="n">
-        <v>491.0000000000001</v>
+        <v>566</v>
       </c>
       <c r="C168" t="n">
-        <v>479.170076161623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>46014</v>
+        <v>45098</v>
       </c>
       <c r="B169" t="n">
-        <v>494.1000000000001</v>
+        <v>567.5</v>
       </c>
       <c r="C169" t="n">
-        <v>483.2970815241337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>46015</v>
+        <v>45099</v>
       </c>
       <c r="B170" t="n">
+        <v>565</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B171" t="n">
+        <v>571.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B172" t="n">
+        <v>573</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B173" t="n">
+        <v>574.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B174" t="n">
+        <v>563</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B175" t="n">
+        <v>545</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B176" t="n">
+        <v>538.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B177" t="n">
+        <v>535</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B178" t="n">
+        <v>524</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B179" t="n">
+        <v>541</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B180" t="n">
+        <v>546</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B181" t="n">
+        <v>535.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B182" t="n">
+        <v>530</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B183" t="n">
+        <v>540</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B184" t="n">
+        <v>538</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B185" t="n">
+        <v>536.7</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>543</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B187" t="n">
+        <v>540</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B188" t="n">
+        <v>538.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B189" t="n">
+        <v>542</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B190" t="n">
+        <v>555</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B191" t="n">
+        <v>547.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B192" t="n">
+        <v>540</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B193" t="n">
+        <v>532</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B194" t="n">
+        <v>531</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B195" t="n">
+        <v>520</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B196" t="n">
+        <v>514.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B197" t="n">
+        <v>508</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B198" t="n">
+        <v>507</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B199" t="n">
+        <v>506</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B200" t="n">
+        <v>493.7</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B201" t="n">
+        <v>495.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B202" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B203" t="n">
+        <v>510</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B204" t="n">
+        <v>515</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45151</v>
+      </c>
+      <c r="B205" t="n">
+        <v>523</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B206" t="n">
+        <v>507</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B207" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B208" t="n">
+        <v>487.8</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B209" t="n">
+        <v>486</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B210" t="n">
+        <v>497.4</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B211" t="n">
+        <v>492</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B212" t="n">
+        <v>481</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B213" t="n">
+        <v>481.4</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B214" t="n">
+        <v>480</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B215" t="n">
+        <v>481.9</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B216" t="n">
+        <v>472</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B217" t="n">
+        <v>489.9</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B218" t="n">
+        <v>485.5</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B219" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B220" t="n">
+        <v>495</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B221" t="n">
+        <v>507</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B222" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B223" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B224" t="n">
+        <v>490</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B225" t="n">
+        <v>487</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B226" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B227" t="n">
+        <v>473.3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B228" t="n">
+        <v>472</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B229" t="n">
+        <v>466</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B230" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B231" t="n">
+        <v>468</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B232" t="n">
+        <v>469</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B233" t="n">
+        <v>472</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B234" t="n">
+        <v>472</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B235" t="n">
+        <v>468</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B236" t="n">
+        <v>469</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B237" t="n">
+        <v>465.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B238" t="n">
+        <v>464</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B239" t="n">
+        <v>457</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B240" t="n">
+        <v>464</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B241" t="n">
+        <v>465</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B242" t="n">
+        <v>465</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B243" t="n">
+        <v>466</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B244" t="n">
+        <v>470</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B245" t="n">
+        <v>469.8</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B246" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B247" t="n">
+        <v>476.4</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B248" t="n">
+        <v>480.3</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B249" t="n">
+        <v>481</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B250" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B251" t="n">
+        <v>478.1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B252" t="n">
+        <v>477</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B253" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B254" t="n">
+        <v>472.3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B255" t="n">
+        <v>479</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B256" t="n">
+        <v>526</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B257" t="n">
+        <v>515</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B258" t="n">
+        <v>536</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B259" t="n">
+        <v>531.9</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B260" t="n">
+        <v>535</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B261" t="n">
+        <v>562.3</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B262" t="n">
+        <v>560</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B263" t="n">
+        <v>558</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B264" t="n">
+        <v>567</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B265" t="n">
+        <v>571.8</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B266" t="n">
+        <v>513</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B267" t="n">
+        <v>503</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B268" t="n">
+        <v>499.6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B269" t="n">
+        <v>486</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B270" t="n">
+        <v>499</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B271" t="n">
+        <v>500</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B272" t="n">
+        <v>502</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B273" t="n">
+        <v>506</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B274" t="n">
+        <v>504</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B275" t="n">
+        <v>499</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B276" t="n">
+        <v>519</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B277" t="n">
+        <v>525</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B278" t="n">
+        <v>513.8</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B279" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B280" t="n">
+        <v>512</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B281" t="n">
+        <v>503</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B282" t="n">
         <v>498</v>
       </c>
-      <c r="C170" t="n">
-        <v>493.4961387097836</v>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B283" t="n">
+        <v>496.9</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B284" t="n">
+        <v>491</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B285" t="n">
+        <v>494</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B286" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B287" t="n">
+        <v>498</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B288" t="n">
+        <v>493.6</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B289" t="n">
+        <v>491</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B290" t="n">
+        <v>487.1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B291" t="n">
+        <v>488.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B292" t="n">
+        <v>490</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B293" t="n">
+        <v>493</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B294" t="n">
+        <v>494.9</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B295" t="n">
+        <v>494.5</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B296" t="n">
+        <v>487.9</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B297" t="n">
+        <v>480.8</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B298" t="n">
+        <v>474</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B299" t="n">
+        <v>471</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B300" t="n">
+        <v>469</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B301" t="n">
+        <v>470</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B302" t="n">
+        <v>462</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B303" t="n">
+        <v>461</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B304" t="n">
+        <v>463</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B305" t="n">
+        <v>462</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B306" t="n">
+        <v>458</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B307" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B308" t="n">
+        <v>491.6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B309" t="n">
+        <v>465</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B310" t="n">
+        <v>469</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B311" t="n">
+        <v>471</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B312" t="n">
+        <v>475</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B313" t="n">
+        <v>481</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B314" t="n">
+        <v>475</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B315" t="n">
+        <v>475</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B316" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B317" t="n">
+        <v>469</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B318" t="n">
+        <v>467</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B319" t="n">
+        <v>460</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B320" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B321" t="n">
+        <v>462</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B322" t="n">
+        <v>458</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B323" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B324" t="n">
+        <v>452.7</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B325" t="n">
+        <v>450.2</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B326" t="n">
+        <v>449.1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B327" t="n">
+        <v>453</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B328" t="n">
+        <v>456</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B329" t="n">
+        <v>454</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B330" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B331" t="n">
+        <v>450.3</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B332" t="n">
+        <v>445</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B333" t="n">
+        <v>442</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B334" t="n">
+        <v>429</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B335" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B336" t="n">
+        <v>432</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B337" t="n">
+        <v>431.2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B338" t="n">
+        <v>440</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B339" t="n">
+        <v>434.3</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B340" t="n">
+        <v>437</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="B341" t="n">
+        <v>448.9</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B342" t="n">
+        <v>448.1</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B343" t="n">
+        <v>451</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B344" t="n">
+        <v>453.9</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B345" t="n">
+        <v>449</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B346" t="n">
+        <v>453</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B347" t="n">
+        <v>448.1</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B348" t="n">
+        <v>444</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="B349" t="n">
+        <v>446</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B350" t="n">
+        <v>444</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B351" t="n">
+        <v>437.2</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B352" t="n">
+        <v>434</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B353" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45452</v>
+      </c>
+      <c r="B354" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B355" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B356" t="n">
+        <v>441</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B357" t="n">
+        <v>440</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B358" t="n">
+        <v>441</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="B359" t="n">
+        <v>440</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B360" t="n">
+        <v>436</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B361" t="n">
+        <v>435.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B362" t="n">
+        <v>433.5</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B363" t="n">
+        <v>436</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B364" t="n">
+        <v>435</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B365" t="n">
+        <v>441</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B366" t="n">
+        <v>435</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B367" t="n">
+        <v>433</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B368" t="n">
+        <v>431.1</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B369" t="n">
+        <v>431</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B370" t="n">
+        <v>439</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B371" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B372" t="n">
+        <v>440</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45480</v>
+      </c>
+      <c r="B373" t="n">
+        <v>441.3</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B374" t="n">
+        <v>438</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B375" t="n">
+        <v>442</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B376" t="n">
+        <v>444</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B377" t="n">
+        <v>444</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="B378" t="n">
+        <v>457.9</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B379" t="n">
+        <v>465</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B380" t="n">
+        <v>498</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45501</v>
+      </c>
+      <c r="B381" t="n">
+        <v>580</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B382" t="n">
+        <v>624</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B383" t="n">
+        <v>637</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B384" t="n">
+        <v>625</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B385" t="n">
+        <v>627</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B386" t="n">
+        <v>652</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B387" t="n">
+        <v>673</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45515</v>
+      </c>
+      <c r="B388" t="n">
+        <v>678.6</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B389" t="n">
+        <v>677</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B390" t="n">
+        <v>662</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B391" t="n">
+        <v>673</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B392" t="n">
+        <v>662.7</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45522</v>
+      </c>
+      <c r="B393" t="n">
+        <v>639</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B394" t="n">
+        <v>639</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B395" t="n">
+        <v>635.1</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="B396" t="n">
+        <v>620.9</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B397" t="n">
+        <v>572</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45543</v>
+      </c>
+      <c r="B398" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B399" t="n">
+        <v>545.1</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B400" t="n">
+        <v>546</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B401" t="n">
+        <v>552.3</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B402" t="n">
+        <v>565</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45550</v>
+      </c>
+      <c r="B403" t="n">
+        <v>554</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B404" t="n">
+        <v>540</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B405" t="n">
+        <v>539.1</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B406" t="n">
+        <v>552.8</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B407" t="n">
+        <v>543</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B408" t="n">
+        <v>538</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B409" t="n">
+        <v>551.6</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B410" t="n">
+        <v>544</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B411" t="n">
+        <v>544</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B412" t="n">
+        <v>583.7</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B413" t="n">
+        <v>579</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B414" t="n">
+        <v>587</v>
+      </c>
+      <c r="C414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B415" t="n">
+        <v>584</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B416" t="n">
+        <v>598.7</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B417" t="n">
+        <v>595</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B418" t="n">
+        <v>563</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="B419" t="n">
+        <v>563.3</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B420" t="n">
+        <v>572</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B421" t="n">
+        <v>583</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B422" t="n">
+        <v>585</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B423" t="n">
+        <v>591.7</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B424" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B425" t="n">
+        <v>602</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B426" t="n">
+        <v>600</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B427" t="n">
+        <v>592.2</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B428" t="n">
+        <v>585</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B429" t="n">
+        <v>593</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="B430" t="n">
+        <v>595</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B431" t="n">
+        <v>580</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B432" t="n">
+        <v>580</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B433" t="n">
+        <v>579</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B434" t="n">
+        <v>592</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B435" t="n">
+        <v>592</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B436" t="n">
+        <v>588</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B437" t="n">
+        <v>594</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B438" t="n">
+        <v>592.9</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B439" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B440" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B441" t="n">
+        <v>581</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B442" t="n">
+        <v>583.9</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B443" t="n">
+        <v>572.6</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B444" t="n">
+        <v>565.2</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B445" t="n">
+        <v>565</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B446" t="n">
+        <v>560.5</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B447" t="n">
+        <v>570</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B448" t="n">
+        <v>560</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B449" t="n">
+        <v>557</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B450" t="n">
+        <v>563.5</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B451" t="n">
+        <v>566</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B452" t="n">
+        <v>563.9</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B453" t="n">
+        <v>563.9</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B454" t="n">
+        <v>564</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B455" t="n">
+        <v>569</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B456" t="n">
+        <v>570</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B457" t="n">
+        <v>570</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B458" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B459" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B460" t="n">
+        <v>500</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B461" t="n">
+        <v>514.9</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B462" t="n">
+        <v>519</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B463" t="n">
+        <v>510.9</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B464" t="n">
+        <v>508.4</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B465" t="n">
+        <v>505</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B466" t="n">
+        <v>518</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B467" t="n">
+        <v>526.5</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B468" t="n">
+        <v>524</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B469" t="n">
+        <v>520.4</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B470" t="n">
+        <v>535</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B471" t="n">
+        <v>524.1</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B472" t="n">
+        <v>524.9</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B473" t="n">
+        <v>525</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B474" t="n">
+        <v>529</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B475" t="n">
+        <v>534</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B476" t="n">
+        <v>533</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B477" t="n">
+        <v>526</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B478" t="n">
+        <v>522</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B479" t="n">
+        <v>518</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B480" t="n">
+        <v>516.9</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B481" t="n">
+        <v>524</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B482" t="n">
+        <v>524.8</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B483" t="n">
+        <v>540</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B484" t="n">
+        <v>550.7</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B485" t="n">
+        <v>539</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B486" t="n">
+        <v>533</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B487" t="n">
+        <v>529.6</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B488" t="n">
+        <v>525</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B489" t="n">
+        <v>516.3</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B490" t="n">
+        <v>513</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B491" t="n">
+        <v>510</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B492" t="n">
+        <v>505.1</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B493" t="n">
+        <v>503.9</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B494" t="n">
+        <v>478.53</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B495" t="n">
+        <v>481.48</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B496" t="n">
+        <v>477.23</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B497" t="n">
+        <v>473.33</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B498" t="n">
+        <v>475.25</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B499" t="n">
+        <v>473.93</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B500" t="n">
+        <v>475.08</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B501" t="n">
+        <v>484.11</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B502" t="n">
+        <v>483.45</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B503" t="n">
+        <v>489.25</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B504" t="n">
+        <v>495.02</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B505" t="n">
+        <v>496.72</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B506" t="n">
+        <v>487.77</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B507" t="n">
+        <v>475.11</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B508" t="n">
+        <v>477.07</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B509" t="n">
+        <v>489.72</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B510" t="n">
+        <v>482.39</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B511" t="n">
+        <v>478.52</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B512" t="n">
+        <v>486.06</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B513" t="n">
+        <v>492.91</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B514" t="n">
+        <v>486.7</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B515" t="n">
+        <v>493.61</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B516" t="n">
+        <v>498.37</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B517" t="n">
+        <v>490.31</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B518" t="n">
+        <v>482.02</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B519" t="n">
+        <v>482.65</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B520" t="n">
+        <v>479.23</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B521" t="n">
+        <v>482.12</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B522" t="n">
+        <v>494.81</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B523" t="n">
+        <v>490</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B524" t="n">
+        <v>486.11</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B525" t="n">
+        <v>488.64</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B526" t="n">
+        <v>487.26</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B527" t="n">
+        <v>487.12</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B528" t="n">
+        <v>495.14</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B529" t="n">
+        <v>488.51</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B530" t="n">
+        <v>488.37</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B531" t="n">
+        <v>483.25</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B532" t="n">
+        <v>486.77</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B533" t="n">
+        <v>555.85</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B534" t="n">
+        <v>581.12</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B535" t="n">
+        <v>567.37</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B536" t="n">
+        <v>581.76</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B537" t="n">
+        <v>574.95</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B538" t="n">
+        <v>574.13</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B539" t="n">
+        <v>574.9</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B540" t="n">
+        <v>564.36</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B541" t="n">
+        <v>540.99</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B542" t="n">
+        <v>542.91</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B543" t="n">
+        <v>545.6799999999999</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B544" t="n">
+        <v>541.78</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B545" t="n">
+        <v>546.67</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B546" t="n">
+        <v>544.22</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B547" t="n">
+        <v>548.9400000000001</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B548" t="n">
+        <v>543.91</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B549" t="n">
+        <v>536.72</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B550" t="n">
+        <v>534.5599999999999</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B551" t="n">
+        <v>528.08</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B552" t="n">
+        <v>528.37</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B553" t="n">
+        <v>526.85</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B554" t="n">
+        <v>524.22</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B555" t="n">
+        <v>521.61</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B556" t="n">
+        <v>520</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B557" t="n">
+        <v>528.09</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B558" t="n">
+        <v>533.45</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B559" t="n">
+        <v>547.62</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B560" t="n">
+        <v>544.03</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B561" t="n">
+        <v>546.26</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B562" t="n">
+        <v>558.08</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B563" t="n">
+        <v>554.3</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B564" t="n">
+        <v>572.71</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B565" t="n">
+        <v>559.11</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B566" t="n">
+        <v>555.6900000000001</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B567" t="n">
+        <v>554.55</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B568" t="n">
+        <v>544.9299999999999</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B569" t="n">
+        <v>537.2</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B570" t="n">
+        <v>538.36</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B571" t="n">
+        <v>539.83</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B572" t="n">
+        <v>531.38</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B573" t="n">
+        <v>529.75</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B574" t="n">
+        <v>529.59</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B575" t="n">
+        <v>526.85</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B576" t="n">
+        <v>520.12</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B577" t="n">
+        <v>519.77</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B578" t="n">
+        <v>523.3099999999999</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45886</v>
+      </c>
+      <c r="B579" t="n">
+        <v>515.83</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B580" t="n">
+        <v>517.23</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B581" t="n">
+        <v>516.8</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B582" t="n">
+        <v>513.28</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B583" t="n">
+        <v>511.59</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45893</v>
+      </c>
+      <c r="B584" t="n">
+        <v>505.9</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B585" t="n">
+        <v>506.26</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B586" t="n">
+        <v>508.27</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B587" t="n">
+        <v>517.78</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B588" t="n">
+        <v>510.16</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B589" t="n">
+        <v>506.07</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B590" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B591" t="n">
+        <v>464</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balanced Accuracy</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CATI/saved_states/CHCL_backtest_results.xlsx
+++ b/CATI/saved_states/CHCL_backtest_results.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C591"/>
+  <dimension ref="A1:C592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44770</v>
+        <v>44773</v>
       </c>
       <c r="B2" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -468,10 +468,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B3" t="n">
-        <v>406</v>
+        <v>424.9</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44773</v>
+        <v>44775</v>
       </c>
       <c r="B4" t="n">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -490,2628 +490,2628 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44774</v>
+        <v>44776</v>
       </c>
       <c r="B5" t="n">
-        <v>424.9</v>
+        <v>444</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="B6" t="n">
-        <v>448</v>
+        <v>430.1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="B7" t="n">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44777</v>
+        <v>44780</v>
       </c>
       <c r="B8" t="n">
-        <v>430.1</v>
+        <v>428</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B9" t="n">
-        <v>426</v>
+        <v>419.9</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44780</v>
+        <v>44782</v>
       </c>
       <c r="B10" t="n">
-        <v>428</v>
+        <v>406.9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="B11" t="n">
-        <v>419.9</v>
+        <v>402.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44782</v>
+        <v>44784</v>
       </c>
       <c r="B12" t="n">
-        <v>406.9</v>
+        <v>399</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44783</v>
+        <v>44787</v>
       </c>
       <c r="B13" t="n">
-        <v>402.9</v>
+        <v>393</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44784</v>
+        <v>44788</v>
       </c>
       <c r="B14" t="n">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="B15" t="n">
-        <v>393</v>
+        <v>396.2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="B16" t="n">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="B17" t="n">
-        <v>396.2</v>
+        <v>407</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44790</v>
+        <v>44794</v>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44791</v>
+        <v>44795</v>
       </c>
       <c r="B19" t="n">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="B20" t="n">
         <v>404</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="B21" t="n">
-        <v>404</v>
+        <v>403.7</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="B22" t="n">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44797</v>
+        <v>44804</v>
       </c>
       <c r="B23" t="n">
-        <v>403.7</v>
+        <v>383</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44798</v>
+        <v>44805</v>
       </c>
       <c r="B24" t="n">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44804</v>
+        <v>44806</v>
       </c>
       <c r="B25" t="n">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44805</v>
+        <v>44808</v>
       </c>
       <c r="B26" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B27" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44808</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44809</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44816</v>
+        <v>44819</v>
       </c>
       <c r="B30" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44817</v>
+        <v>44820</v>
       </c>
       <c r="B31" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44822</v>
       </c>
       <c r="B32" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="B33" t="n">
-        <v>370</v>
+        <v>354.1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44822</v>
+        <v>44825</v>
       </c>
       <c r="B34" t="n">
-        <v>364</v>
+        <v>355.3</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44824</v>
+        <v>44826</v>
       </c>
       <c r="B35" t="n">
-        <v>354.1</v>
+        <v>358</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44825</v>
+        <v>44829</v>
       </c>
       <c r="B36" t="n">
-        <v>355.3</v>
+        <v>357</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44826</v>
+        <v>44831</v>
       </c>
       <c r="B37" t="n">
-        <v>358</v>
+        <v>361.9</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44829</v>
+        <v>44832</v>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>358.1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44831</v>
+        <v>44833</v>
       </c>
       <c r="B39" t="n">
-        <v>361.9</v>
+        <v>365</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44832</v>
+        <v>44843</v>
       </c>
       <c r="B40" t="n">
-        <v>358.1</v>
+        <v>371</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44833</v>
+        <v>44847</v>
       </c>
       <c r="B41" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44843</v>
+        <v>44850</v>
       </c>
       <c r="B42" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44847</v>
+        <v>44853</v>
       </c>
       <c r="B43" t="n">
-        <v>370</v>
+        <v>359.5</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44850</v>
+        <v>44854</v>
       </c>
       <c r="B44" t="n">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44853</v>
+        <v>44857</v>
       </c>
       <c r="B45" t="n">
-        <v>359.5</v>
+        <v>367</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44854</v>
+        <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44857</v>
+        <v>44866</v>
       </c>
       <c r="B47" t="n">
-        <v>367</v>
+        <v>384.5</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44865</v>
+        <v>44868</v>
       </c>
       <c r="B48" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44866</v>
+        <v>44871</v>
       </c>
       <c r="B49" t="n">
-        <v>384.5</v>
+        <v>387.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44868</v>
+        <v>44872</v>
       </c>
       <c r="B50" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44871</v>
+        <v>44873</v>
       </c>
       <c r="B51" t="n">
-        <v>387.5</v>
+        <v>387</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44872</v>
+        <v>44874</v>
       </c>
       <c r="B52" t="n">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44873</v>
+        <v>44875</v>
       </c>
       <c r="B53" t="n">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44874</v>
+        <v>44878</v>
       </c>
       <c r="B54" t="n">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44875</v>
+        <v>44879</v>
       </c>
       <c r="B55" t="n">
-        <v>368</v>
+        <v>368.2</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44878</v>
+        <v>44880</v>
       </c>
       <c r="B56" t="n">
-        <v>365</v>
+        <v>374.4</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44879</v>
+        <v>44881</v>
       </c>
       <c r="B57" t="n">
-        <v>368.2</v>
+        <v>374</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="B58" t="n">
-        <v>374.4</v>
+        <v>384</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44881</v>
+        <v>44887</v>
       </c>
       <c r="B59" t="n">
-        <v>374</v>
+        <v>388.9</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44882</v>
+        <v>44888</v>
       </c>
       <c r="B60" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44887</v>
+        <v>44889</v>
       </c>
       <c r="B61" t="n">
-        <v>388.9</v>
+        <v>381</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44888</v>
+        <v>44892</v>
       </c>
       <c r="B62" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44889</v>
+        <v>44893</v>
       </c>
       <c r="B63" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44892</v>
+        <v>44894</v>
       </c>
       <c r="B64" t="n">
-        <v>390</v>
+        <v>381.1</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="B65" t="n">
-        <v>388</v>
+        <v>383.1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="B66" t="n">
-        <v>381.1</v>
+        <v>390</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44895</v>
+        <v>44899</v>
       </c>
       <c r="B67" t="n">
-        <v>383.1</v>
+        <v>397</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="B68" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44899</v>
+        <v>44901</v>
       </c>
       <c r="B69" t="n">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="B70" t="n">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44901</v>
+        <v>44906</v>
       </c>
       <c r="B71" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="B72" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44906</v>
+        <v>44908</v>
       </c>
       <c r="B73" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="B74" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="B75" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44909</v>
+        <v>44913</v>
       </c>
       <c r="B76" t="n">
-        <v>388</v>
+        <v>355.5</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B77" t="n">
-        <v>390</v>
+        <v>351.3</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44913</v>
+        <v>44915</v>
       </c>
       <c r="B78" t="n">
-        <v>355.5</v>
+        <v>354</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="B79" t="n">
-        <v>351.3</v>
+        <v>352.3</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B80" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44916</v>
+        <v>44921</v>
       </c>
       <c r="B81" t="n">
-        <v>352.3</v>
+        <v>366.1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44917</v>
+        <v>44922</v>
       </c>
       <c r="B82" t="n">
-        <v>352</v>
+        <v>378.1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="B83" t="n">
-        <v>366.1</v>
+        <v>378.2</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B84" t="n">
-        <v>378.1</v>
+        <v>389.8</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44923</v>
+        <v>44927</v>
       </c>
       <c r="B85" t="n">
-        <v>378.2</v>
+        <v>392.1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B86" t="n">
-        <v>389.8</v>
+        <v>397</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44927</v>
+        <v>44929</v>
       </c>
       <c r="B87" t="n">
-        <v>392.1</v>
+        <v>395</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44928</v>
+        <v>44930</v>
       </c>
       <c r="B88" t="n">
-        <v>397</v>
+        <v>414.1</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44929</v>
+        <v>44931</v>
       </c>
       <c r="B89" t="n">
-        <v>395</v>
+        <v>410.1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44930</v>
+        <v>44934</v>
       </c>
       <c r="B90" t="n">
-        <v>414.1</v>
+        <v>415.5</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B91" t="n">
-        <v>410.1</v>
+        <v>420.2</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44934</v>
+        <v>44936</v>
       </c>
       <c r="B92" t="n">
-        <v>415.5</v>
+        <v>425.4</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44935</v>
+        <v>44938</v>
       </c>
       <c r="B93" t="n">
-        <v>420.2</v>
+        <v>415</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
       <c r="B94" t="n">
-        <v>425.4</v>
+        <v>425</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44938</v>
+        <v>44944</v>
       </c>
       <c r="B95" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="B96" t="n">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B97" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B98" t="n">
-        <v>420</v>
+        <v>422.9</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44949</v>
+        <v>44951</v>
       </c>
       <c r="B99" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44950</v>
+        <v>44952</v>
       </c>
       <c r="B100" t="n">
-        <v>422.9</v>
+        <v>438</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="B101" t="n">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44952</v>
+        <v>44962</v>
       </c>
       <c r="B102" t="n">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44956</v>
+        <v>44972</v>
       </c>
       <c r="B103" t="n">
-        <v>448</v>
+        <v>461.5</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44962</v>
+        <v>44973</v>
       </c>
       <c r="B104" t="n">
-        <v>485</v>
+        <v>458.5</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="B105" t="n">
-        <v>461.5</v>
+        <v>454</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="B106" t="n">
-        <v>458.5</v>
+        <v>460.3</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44977</v>
+        <v>44983</v>
       </c>
       <c r="B107" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44980</v>
+        <v>44994</v>
       </c>
       <c r="B108" t="n">
-        <v>460.3</v>
+        <v>484</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44983</v>
+        <v>45005</v>
       </c>
       <c r="B109" t="n">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44994</v>
+        <v>45014</v>
       </c>
       <c r="B110" t="n">
-        <v>484</v>
+        <v>479.9</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45005</v>
+        <v>45015</v>
       </c>
       <c r="B111" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B112" t="n">
-        <v>479.9</v>
+        <v>473</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45015</v>
+        <v>45019</v>
       </c>
       <c r="B113" t="n">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45018</v>
+        <v>45020</v>
       </c>
       <c r="B114" t="n">
-        <v>473</v>
+        <v>470.9</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B115" t="n">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="B116" t="n">
-        <v>470.9</v>
+        <v>468.4</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45021</v>
+        <v>45025</v>
       </c>
       <c r="B117" t="n">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="B118" t="n">
-        <v>468.4</v>
+        <v>462.6</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45025</v>
+        <v>45027</v>
       </c>
       <c r="B119" t="n">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="B120" t="n">
-        <v>462.6</v>
+        <v>490</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="B121" t="n">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45028</v>
+        <v>45032</v>
       </c>
       <c r="B122" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="B123" t="n">
-        <v>490</v>
+        <v>481.7</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45032</v>
+        <v>45034</v>
       </c>
       <c r="B124" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45033</v>
+        <v>45035</v>
       </c>
       <c r="B125" t="n">
-        <v>481.7</v>
+        <v>484</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B126" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45035</v>
+        <v>45039</v>
       </c>
       <c r="B127" t="n">
-        <v>484</v>
+        <v>477.1</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45036</v>
+        <v>45040</v>
       </c>
       <c r="B128" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45039</v>
+        <v>45041</v>
       </c>
       <c r="B129" t="n">
-        <v>477.1</v>
+        <v>479</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45040</v>
+        <v>45042</v>
       </c>
       <c r="B130" t="n">
         <v>478</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="B131" t="n">
-        <v>479</v>
+        <v>475.9</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45042</v>
+        <v>45046</v>
       </c>
       <c r="B132" t="n">
-        <v>478</v>
+        <v>469.5</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="B133" t="n">
-        <v>475.9</v>
+        <v>468</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45046</v>
+        <v>45049</v>
       </c>
       <c r="B134" t="n">
-        <v>469.5</v>
+        <v>470</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45048</v>
+        <v>45050</v>
       </c>
       <c r="B135" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45049</v>
+        <v>45053</v>
       </c>
       <c r="B136" t="n">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45050</v>
+        <v>45054</v>
       </c>
       <c r="B137" t="n">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45053</v>
+        <v>45055</v>
       </c>
       <c r="B138" t="n">
         <v>464</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B139" t="n">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="B140" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45056</v>
+        <v>45060</v>
       </c>
       <c r="B141" t="n">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="B142" t="n">
-        <v>472</v>
+        <v>462.5</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45060</v>
+        <v>45062</v>
       </c>
       <c r="B143" t="n">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B144" t="n">
-        <v>462.5</v>
+        <v>460.9</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B145" t="n">
-        <v>460</v>
+        <v>468.9</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="B146" t="n">
-        <v>460.9</v>
+        <v>466</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="B147" t="n">
-        <v>468.9</v>
+        <v>472</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45067</v>
+        <v>45069</v>
       </c>
       <c r="B148" t="n">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45068</v>
+        <v>45070</v>
       </c>
       <c r="B149" t="n">
-        <v>472</v>
+        <v>475.5</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45069</v>
+        <v>45074</v>
       </c>
       <c r="B150" t="n">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45070</v>
+        <v>45076</v>
       </c>
       <c r="B151" t="n">
-        <v>475.5</v>
+        <v>511</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45074</v>
+        <v>45077</v>
       </c>
       <c r="B152" t="n">
-        <v>504</v>
+        <v>497.6</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="B153" t="n">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45077</v>
+        <v>45081</v>
       </c>
       <c r="B154" t="n">
-        <v>497.6</v>
+        <v>536</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="B155" t="n">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="B156" t="n">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="B157" t="n">
-        <v>549</v>
+        <v>548.1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="B158" t="n">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="B159" t="n">
-        <v>548.1</v>
+        <v>550.6</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="B160" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="B161" t="n">
-        <v>550.6</v>
+        <v>565</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="B162" t="n">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="B163" t="n">
-        <v>565</v>
+        <v>563.1</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45091</v>
+        <v>45095</v>
       </c>
       <c r="B164" t="n">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="B165" t="n">
-        <v>563.1</v>
+        <v>581</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45095</v>
+        <v>45097</v>
       </c>
       <c r="B166" t="n">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="B167" t="n">
-        <v>581</v>
+        <v>567.5</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="B168" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="B169" t="n">
-        <v>567.5</v>
+        <v>571.5</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="B170" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45102</v>
+        <v>45104</v>
       </c>
       <c r="B171" t="n">
-        <v>571.5</v>
+        <v>574.1</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="B172" t="n">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45104</v>
+        <v>45109</v>
       </c>
       <c r="B173" t="n">
-        <v>574.1</v>
+        <v>545</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45105</v>
+        <v>45110</v>
       </c>
       <c r="B174" t="n">
-        <v>563</v>
+        <v>538.1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45109</v>
+        <v>45111</v>
       </c>
       <c r="B175" t="n">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B176" t="n">
-        <v>538.1</v>
+        <v>524</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B177" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45112</v>
+        <v>45116</v>
       </c>
       <c r="B178" t="n">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45113</v>
+        <v>45117</v>
       </c>
       <c r="B179" t="n">
-        <v>541</v>
+        <v>535.2</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45116</v>
+        <v>45118</v>
       </c>
       <c r="B180" t="n">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B181" t="n">
-        <v>535.2</v>
+        <v>540</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B182" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45119</v>
+        <v>45123</v>
       </c>
       <c r="B183" t="n">
-        <v>540</v>
+        <v>536.7</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45120</v>
+        <v>45124</v>
       </c>
       <c r="B184" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45123</v>
+        <v>45125</v>
       </c>
       <c r="B185" t="n">
-        <v>536.7</v>
+        <v>540</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B186" t="n">
-        <v>543</v>
+        <v>538.1</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B187" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45126</v>
+        <v>45130</v>
       </c>
       <c r="B188" t="n">
-        <v>538.1</v>
+        <v>555</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45127</v>
+        <v>45131</v>
       </c>
       <c r="B189" t="n">
-        <v>542</v>
+        <v>547.8</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45130</v>
+        <v>45132</v>
       </c>
       <c r="B190" t="n">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B191" t="n">
-        <v>547.8</v>
+        <v>532</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="B192" t="n">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45133</v>
+        <v>45137</v>
       </c>
       <c r="B193" t="n">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45134</v>
+        <v>45138</v>
       </c>
       <c r="B194" t="n">
-        <v>531</v>
+        <v>514.1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45137</v>
+        <v>45139</v>
       </c>
       <c r="B195" t="n">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="B196" t="n">
-        <v>514.1</v>
+        <v>507</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45139</v>
+        <v>45141</v>
       </c>
       <c r="B197" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45140</v>
+        <v>45144</v>
       </c>
       <c r="B198" t="n">
-        <v>507</v>
+        <v>493.7</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B199" t="n">
-        <v>506</v>
+        <v>495.2</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45144</v>
+        <v>45146</v>
       </c>
       <c r="B200" t="n">
-        <v>493.7</v>
+        <v>488.2</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B201" t="n">
-        <v>495.2</v>
+        <v>510</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45146</v>
+        <v>45148</v>
       </c>
       <c r="B202" t="n">
-        <v>488.2</v>
+        <v>515</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45147</v>
+        <v>45151</v>
       </c>
       <c r="B203" t="n">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45148</v>
+        <v>45152</v>
       </c>
       <c r="B204" t="n">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45151</v>
+        <v>45155</v>
       </c>
       <c r="B205" t="n">
-        <v>523</v>
+        <v>499.5</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45152</v>
+        <v>45158</v>
       </c>
       <c r="B206" t="n">
-        <v>507</v>
+        <v>487.8</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45155</v>
+        <v>45160</v>
       </c>
       <c r="B207" t="n">
-        <v>499.5</v>
+        <v>486</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45158</v>
+        <v>45161</v>
       </c>
       <c r="B208" t="n">
-        <v>487.8</v>
+        <v>497.4</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="B209" t="n">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45161</v>
+        <v>45165</v>
       </c>
       <c r="B210" t="n">
-        <v>497.4</v>
+        <v>481</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45162</v>
+        <v>45166</v>
       </c>
       <c r="B211" t="n">
-        <v>492</v>
+        <v>481.4</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45165</v>
+        <v>45167</v>
       </c>
       <c r="B212" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B213" t="n">
-        <v>481.4</v>
+        <v>481.9</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45167</v>
+        <v>45179</v>
       </c>
       <c r="B214" t="n">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45168</v>
+        <v>45182</v>
       </c>
       <c r="B215" t="n">
-        <v>481.9</v>
+        <v>489.9</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45179</v>
+        <v>45188</v>
       </c>
       <c r="B216" t="n">
-        <v>472</v>
+        <v>485.5</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45182</v>
+        <v>45190</v>
       </c>
       <c r="B217" t="n">
-        <v>489.9</v>
+        <v>499.9</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45188</v>
+        <v>45193</v>
       </c>
       <c r="B218" t="n">
-        <v>485.5</v>
+        <v>495</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45190</v>
+        <v>45195</v>
       </c>
       <c r="B219" t="n">
-        <v>499.9</v>
+        <v>507</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B220" t="n">
-        <v>495</v>
+        <v>495.1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45195</v>
+        <v>45201</v>
       </c>
       <c r="B221" t="n">
-        <v>507</v>
+        <v>496.5</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45200</v>
+        <v>45202</v>
       </c>
       <c r="B222" t="n">
-        <v>495.1</v>
+        <v>490</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45201</v>
+        <v>45203</v>
       </c>
       <c r="B223" t="n">
-        <v>496.5</v>
+        <v>487</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45202</v>
+        <v>45204</v>
       </c>
       <c r="B224" t="n">
-        <v>490</v>
+        <v>487.9</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45203</v>
+        <v>45207</v>
       </c>
       <c r="B225" t="n">
-        <v>487</v>
+        <v>473.3</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45204</v>
+        <v>45208</v>
       </c>
       <c r="B226" t="n">
-        <v>487.9</v>
+        <v>472</v>
       </c>
       <c r="C226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="B227" t="n">
-        <v>473.3</v>
+        <v>466</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B228" t="n">
-        <v>472</v>
+        <v>467.5</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B229" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B230" t="n">
-        <v>467.5</v>
+        <v>469</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B231" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45215</v>
+        <v>45228</v>
       </c>
       <c r="B232" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45216</v>
+        <v>45229</v>
       </c>
       <c r="B233" t="n">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45228</v>
+        <v>45230</v>
       </c>
       <c r="B234" t="n">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="B235" t="n">
-        <v>468</v>
+        <v>465.2</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="B236" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45231</v>
+        <v>45235</v>
       </c>
       <c r="B237" t="n">
-        <v>465.2</v>
+        <v>457</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="B238" t="n">
         <v>464</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45235</v>
+        <v>45237</v>
       </c>
       <c r="B239" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B240" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B241" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45238</v>
+        <v>45250</v>
       </c>
       <c r="B242" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45239</v>
+        <v>45251</v>
       </c>
       <c r="B243" t="n">
-        <v>466</v>
+        <v>469.8</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3119,43 +3119,43 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="B244" t="n">
-        <v>470</v>
+        <v>470.2</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45251</v>
+        <v>45253</v>
       </c>
       <c r="B245" t="n">
-        <v>469.8</v>
+        <v>476.4</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45252</v>
+        <v>45257</v>
       </c>
       <c r="B246" t="n">
-        <v>470.2</v>
+        <v>480.3</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45253</v>
+        <v>45258</v>
       </c>
       <c r="B247" t="n">
-        <v>476.4</v>
+        <v>481</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3163,54 +3163,54 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45257</v>
+        <v>45259</v>
       </c>
       <c r="B248" t="n">
-        <v>480.3</v>
+        <v>476.5</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45258</v>
+        <v>45260</v>
       </c>
       <c r="B249" t="n">
-        <v>481</v>
+        <v>478.1</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45259</v>
+        <v>45263</v>
       </c>
       <c r="B250" t="n">
-        <v>476.5</v>
+        <v>477</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="B251" t="n">
-        <v>478.1</v>
+        <v>473.2</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45263</v>
+        <v>45266</v>
       </c>
       <c r="B252" t="n">
-        <v>477</v>
+        <v>472.3</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3218,109 +3218,109 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B253" t="n">
-        <v>473.2</v>
+        <v>479</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45266</v>
+        <v>45270</v>
       </c>
       <c r="B254" t="n">
-        <v>472.3</v>
+        <v>526</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B255" t="n">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45270</v>
+        <v>45272</v>
       </c>
       <c r="B256" t="n">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="B257" t="n">
-        <v>515</v>
+        <v>531.9</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="B258" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45273</v>
+        <v>45277</v>
       </c>
       <c r="B259" t="n">
-        <v>531.9</v>
+        <v>562.3</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45274</v>
+        <v>45278</v>
       </c>
       <c r="B260" t="n">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45277</v>
+        <v>45279</v>
       </c>
       <c r="B261" t="n">
-        <v>562.3</v>
+        <v>558</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="B262" t="n">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B263" t="n">
-        <v>558</v>
+        <v>571.8</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3339,65 +3339,65 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="B264" t="n">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B265" t="n">
-        <v>571.8</v>
+        <v>503</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45284</v>
+        <v>45288</v>
       </c>
       <c r="B266" t="n">
-        <v>513</v>
+        <v>499.6</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45287</v>
+        <v>45292</v>
       </c>
       <c r="B267" t="n">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B268" t="n">
-        <v>499.6</v>
+        <v>483.3</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B269" t="n">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3405,54 +3405,54 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B270" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B271" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B272" t="n">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B273" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B274" t="n">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45302</v>
+        <v>45305</v>
       </c>
       <c r="B275" t="n">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45305</v>
+        <v>45307</v>
       </c>
       <c r="B276" t="n">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -3482,32 +3482,32 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B277" t="n">
-        <v>525</v>
+        <v>513.8</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B278" t="n">
-        <v>513.8</v>
+        <v>508.5</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45309</v>
+        <v>45312</v>
       </c>
       <c r="B279" t="n">
-        <v>508.5</v>
+        <v>512</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B280" t="n">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B281" t="n">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -3537,98 +3537,98 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B282" t="n">
-        <v>498</v>
+        <v>496.9</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B283" t="n">
-        <v>496.9</v>
+        <v>491</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="B284" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B285" t="n">
-        <v>494</v>
+        <v>493.9</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B286" t="n">
-        <v>493.9</v>
+        <v>498</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B287" t="n">
-        <v>498</v>
+        <v>493.6</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B288" t="n">
-        <v>493.6</v>
+        <v>491</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45323</v>
+        <v>45326</v>
       </c>
       <c r="B289" t="n">
-        <v>491</v>
+        <v>487.1</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B290" t="n">
-        <v>487.1</v>
+        <v>488.5</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -3636,32 +3636,32 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B291" t="n">
-        <v>488.5</v>
+        <v>490</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B292" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45329</v>
+        <v>45333</v>
       </c>
       <c r="B293" t="n">
-        <v>493</v>
+        <v>494.9</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="B294" t="n">
-        <v>494.9</v>
+        <v>494.5</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -3680,24 +3680,24 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B295" t="n">
-        <v>494.5</v>
+        <v>487.9</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B296" t="n">
-        <v>487.9</v>
+        <v>485.5</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -3719,7 +3719,7 @@
         <v>474</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -3741,7 +3741,7 @@
         <v>469</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -3763,7 +3763,7 @@
         <v>462</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -3785,7 +3785,7 @@
         <v>463</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -3796,7 +3796,7 @@
         <v>462</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -3862,7 +3862,7 @@
         <v>471</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -3917,7 +3917,7 @@
         <v>469.9</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -4016,7 +4016,7 @@
         <v>450.2</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -4060,7 +4060,7 @@
         <v>454</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -4071,7 +4071,7 @@
         <v>454.5</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4082,7 +4082,7 @@
         <v>450.3</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4093,7 +4093,7 @@
         <v>445</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -4104,7 +4104,7 @@
         <v>442</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -4115,7 +4115,7 @@
         <v>429</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -4126,7 +4126,7 @@
         <v>428.5</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -4137,7 +4137,7 @@
         <v>432</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -4159,7 +4159,7 @@
         <v>440</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -4192,7 +4192,7 @@
         <v>448.9</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -4203,7 +4203,7 @@
         <v>448.1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -4225,7 +4225,7 @@
         <v>453.9</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4247,7 +4247,7 @@
         <v>453</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4269,7 +4269,7 @@
         <v>444</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -4280,7 +4280,7 @@
         <v>446</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -4291,7 +4291,7 @@
         <v>444</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -4302,7 +4302,7 @@
         <v>437.2</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -4324,7 +4324,7 @@
         <v>432.5</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -4335,7 +4335,7 @@
         <v>434.9</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -4390,7 +4390,7 @@
         <v>440</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -4456,7 +4456,7 @@
         <v>441</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -4489,7 +4489,7 @@
         <v>431.1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -4500,7 +4500,7 @@
         <v>431</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -4544,7 +4544,7 @@
         <v>441.3</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -4566,7 +4566,7 @@
         <v>442</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -4588,7 +4588,7 @@
         <v>444</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -4599,7 +4599,7 @@
         <v>457.9</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -4610,7 +4610,7 @@
         <v>465</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -4654,7 +4654,7 @@
         <v>637</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -4665,7 +4665,7 @@
         <v>625</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -4676,7 +4676,7 @@
         <v>627</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -4687,7 +4687,7 @@
         <v>652</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -4698,7 +4698,7 @@
         <v>673</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -4720,7 +4720,7 @@
         <v>677</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -4731,7 +4731,7 @@
         <v>662</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -4742,7 +4742,7 @@
         <v>673</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -4753,7 +4753,7 @@
         <v>662.7</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -4786,7 +4786,7 @@
         <v>635.1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -4797,7 +4797,7 @@
         <v>620.9</v>
       </c>
       <c r="C396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -4808,7 +4808,7 @@
         <v>572</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -4819,7 +4819,7 @@
         <v>560.5</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -4830,7 +4830,7 @@
         <v>545.1</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -4841,7 +4841,7 @@
         <v>546</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -4852,7 +4852,7 @@
         <v>552.3</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -4863,7 +4863,7 @@
         <v>565</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -4896,7 +4896,7 @@
         <v>539.1</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -4907,7 +4907,7 @@
         <v>552.8</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -4918,7 +4918,7 @@
         <v>543</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -4951,7 +4951,7 @@
         <v>544</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -4962,7 +4962,7 @@
         <v>544</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -4973,7 +4973,7 @@
         <v>583.7</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -4984,7 +4984,7 @@
         <v>579</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -4995,7 +4995,7 @@
         <v>587</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -5006,7 +5006,7 @@
         <v>584</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -5182,7 +5182,7 @@
         <v>580</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -5215,7 +5215,7 @@
         <v>592</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -5226,7 +5226,7 @@
         <v>592</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -5248,7 +5248,7 @@
         <v>594</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -5259,7 +5259,7 @@
         <v>592.9</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -5402,7 +5402,7 @@
         <v>566</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -5424,7 +5424,7 @@
         <v>563.9</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -5457,7 +5457,7 @@
         <v>570</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -5479,7 +5479,7 @@
         <v>504.8</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -5545,7 +5545,7 @@
         <v>508.4</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -5567,7 +5567,7 @@
         <v>518</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -5600,7 +5600,7 @@
         <v>520.4</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -5611,7 +5611,7 @@
         <v>535</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -5622,7 +5622,7 @@
         <v>524.1</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -5633,7 +5633,7 @@
         <v>524.9</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -5644,7 +5644,7 @@
         <v>525</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -5655,7 +5655,7 @@
         <v>529</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -5666,7 +5666,7 @@
         <v>534</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -5677,7 +5677,7 @@
         <v>533</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -5688,7 +5688,7 @@
         <v>526</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -5699,7 +5699,7 @@
         <v>522</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -5710,7 +5710,7 @@
         <v>518</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -5721,7 +5721,7 @@
         <v>516.9</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -5732,7 +5732,7 @@
         <v>524</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -5743,7 +5743,7 @@
         <v>524.8</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -5754,7 +5754,7 @@
         <v>540</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -5798,7 +5798,7 @@
         <v>529.6</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -5809,7 +5809,7 @@
         <v>525</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -5820,7 +5820,7 @@
         <v>516.3</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -5831,7 +5831,7 @@
         <v>513</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -5842,7 +5842,7 @@
         <v>510</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -5864,7 +5864,7 @@
         <v>503.9</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -5875,7 +5875,7 @@
         <v>478.53</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -5886,7 +5886,7 @@
         <v>481.48</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -5897,7 +5897,7 @@
         <v>477.23</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -5919,7 +5919,7 @@
         <v>475.25</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -5930,7 +5930,7 @@
         <v>473.93</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -5952,7 +5952,7 @@
         <v>484.11</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -5963,7 +5963,7 @@
         <v>483.45</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -5974,7 +5974,7 @@
         <v>489.25</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
@@ -5985,7 +5985,7 @@
         <v>495.02</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -5996,7 +5996,7 @@
         <v>496.72</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -6018,7 +6018,7 @@
         <v>475.11</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -6029,7 +6029,7 @@
         <v>477.07</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -6084,7 +6084,7 @@
         <v>492.91</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -6095,7 +6095,7 @@
         <v>486.7</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -6106,7 +6106,7 @@
         <v>493.61</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -6117,7 +6117,7 @@
         <v>498.37</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -6128,7 +6128,7 @@
         <v>490.31</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -6161,7 +6161,7 @@
         <v>479.23</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -6172,7 +6172,7 @@
         <v>482.12</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -6205,7 +6205,7 @@
         <v>486.11</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -6293,7 +6293,7 @@
         <v>486.77</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -6304,7 +6304,7 @@
         <v>555.85</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
@@ -6502,7 +6502,7 @@
         <v>528.08</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -6579,7 +6579,7 @@
         <v>533.45</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -6700,7 +6700,7 @@
         <v>537.2</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -6711,7 +6711,7 @@
         <v>538.36</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -6788,7 +6788,7 @@
         <v>519.77</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -6810,7 +6810,7 @@
         <v>515.83</v>
       </c>
       <c r="C579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -6832,7 +6832,7 @@
         <v>516.8</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -6843,7 +6843,7 @@
         <v>513.28</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -6854,7 +6854,7 @@
         <v>511.59</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -6865,7 +6865,7 @@
         <v>505.9</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -6876,7 +6876,7 @@
         <v>506.26</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -6887,7 +6887,7 @@
         <v>508.27</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -6898,7 +6898,7 @@
         <v>517.78</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -6909,7 +6909,7 @@
         <v>510.16</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -6920,7 +6920,7 @@
         <v>506.07</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -6931,7 +6931,7 @@
         <v>508.22</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -6942,7 +6942,18 @@
         <v>464</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B592" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6983,7 +6994,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.55668358714044</v>
       </c>
     </row>
     <row r="3">
@@ -6993,7 +7004,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6933042320213081</v>
       </c>
     </row>
   </sheetData>
